--- a/Document/8.3.ProjectTestCaseSprint3.xlsx
+++ b/Document/8.3.ProjectTestCaseSprint3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_Document\Document_DaSua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35555B76-E69B-4277-81F4-A06B00DAE9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B557E2-6CE7-4296-9B22-D648341B7A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="810" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3391,7 +3391,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="234">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3823,6 +3823,15 @@
     <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3838,18 +3847,42 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="15" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3865,28 +3898,25 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3898,26 +3928,20 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3940,19 +3964,7 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3964,8 +3976,11 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3976,10 +3991,7 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3991,26 +4003,23 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5477,38 +5486,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
       <c r="E1" s="161"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
+      <c r="A2" s="174"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
       <c r="E2" s="161"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="172" t="s">
+      <c r="B3" s="175" t="s">
         <v>601</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
-      <c r="E3" s="173"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="163"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="162" t="s">
@@ -5520,10 +5529,10 @@
       <c r="C5" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="232" t="s">
+      <c r="D5" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="233"/>
+      <c r="E5" s="173"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="154">
@@ -5713,10 +5722,10 @@
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="177" t="s">
         <v>716</v>
       </c>
-      <c r="C17" s="175"/>
+      <c r="C17" s="178"/>
       <c r="D17" s="153">
         <f>SUM(D6:D16)</f>
         <v>227</v>
@@ -5742,7 +5751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:CF92"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A58" sqref="A58:G58"/>
     </sheetView>
   </sheetViews>
@@ -5787,13 +5796,13 @@
       <c r="A2" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="18">
@@ -6109,62 +6118,62 @@
       <c r="CF11" s="42"/>
     </row>
     <row r="22" spans="1:13" ht="16.8">
-      <c r="A22" s="194" t="s">
+      <c r="A22" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="194" t="s">
+      <c r="C22" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="194" t="s">
+      <c r="D22" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="195" t="s">
+      <c r="E22" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="194" t="s">
+      <c r="F22" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="208" t="s">
+      <c r="G22" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="208"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="208"/>
-      <c r="K22" s="208"/>
-      <c r="L22" s="208"/>
-      <c r="M22" s="208" t="s">
+      <c r="H22" s="216"/>
+      <c r="I22" s="216"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="216"/>
+      <c r="L22" s="216"/>
+      <c r="M22" s="216" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.8">
-      <c r="A23" s="194"/>
-      <c r="B23" s="194"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="194"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="194"/>
-      <c r="G23" s="208" t="s">
+      <c r="A23" s="204"/>
+      <c r="B23" s="204"/>
+      <c r="C23" s="204"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="204"/>
+      <c r="G23" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="208"/>
-      <c r="I23" s="208"/>
-      <c r="J23" s="208" t="s">
+      <c r="H23" s="216"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="208"/>
-      <c r="L23" s="208"/>
-      <c r="M23" s="208"/>
+      <c r="K23" s="216"/>
+      <c r="L23" s="216"/>
+      <c r="M23" s="216"/>
     </row>
     <row r="24" spans="1:13" ht="16.8">
-      <c r="A24" s="194"/>
-      <c r="B24" s="194"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="194"/>
+      <c r="A24" s="204"/>
+      <c r="B24" s="204"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="205"/>
+      <c r="F24" s="204"/>
       <c r="G24" s="19" t="s">
         <v>63</v>
       </c>
@@ -6183,24 +6192,24 @@
       <c r="L24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="208"/>
+      <c r="M24" s="216"/>
     </row>
     <row r="25" spans="1:13" ht="16.8">
-      <c r="A25" s="228" t="s">
+      <c r="A25" s="231" t="s">
         <v>428</v>
       </c>
-      <c r="B25" s="228"/>
-      <c r="C25" s="228"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="228"/>
-      <c r="F25" s="228"/>
-      <c r="G25" s="228"/>
-      <c r="H25" s="228"/>
-      <c r="I25" s="228"/>
-      <c r="J25" s="228"/>
-      <c r="K25" s="228"/>
-      <c r="L25" s="228"/>
-      <c r="M25" s="228"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="231"/>
+      <c r="D25" s="231"/>
+      <c r="E25" s="231"/>
+      <c r="F25" s="231"/>
+      <c r="G25" s="231"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="231"/>
+      <c r="J25" s="231"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="231"/>
+      <c r="M25" s="231"/>
     </row>
     <row r="26" spans="1:13" ht="33.6">
       <c r="A26" s="22" t="s">
@@ -7033,21 +7042,21 @@
       <c r="M51" s="30"/>
     </row>
     <row r="52" spans="1:13" ht="16.8">
-      <c r="A52" s="193" t="s">
+      <c r="A52" s="203" t="s">
         <v>476</v>
       </c>
-      <c r="B52" s="193"/>
-      <c r="C52" s="193"/>
-      <c r="D52" s="193"/>
-      <c r="E52" s="193"/>
-      <c r="F52" s="193"/>
-      <c r="G52" s="193"/>
-      <c r="H52" s="193"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="193"/>
-      <c r="K52" s="193"/>
-      <c r="L52" s="193"/>
-      <c r="M52" s="193"/>
+      <c r="B52" s="203"/>
+      <c r="C52" s="203"/>
+      <c r="D52" s="203"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="203"/>
+      <c r="G52" s="203"/>
+      <c r="H52" s="203"/>
+      <c r="I52" s="203"/>
+      <c r="J52" s="203"/>
+      <c r="K52" s="203"/>
+      <c r="L52" s="203"/>
+      <c r="M52" s="203"/>
     </row>
     <row r="53" spans="1:13" ht="105" customHeight="1">
       <c r="A53" s="32" t="s">
@@ -7956,11 +7965,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A25:M25"/>
     <mergeCell ref="A52:M52"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
@@ -7969,6 +7973,11 @@
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="M22:M24"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A25:M25"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G26:G51 G53:G74 J26:J51 J53:J74" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -7985,7 +7994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -8030,13 +8039,13 @@
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="18">
@@ -8197,62 +8206,62 @@
       <c r="AG11" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="16.8">
-      <c r="A41" s="194" t="s">
+      <c r="A41" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="194" t="s">
+      <c r="B41" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="194" t="s">
+      <c r="C41" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="194" t="s">
+      <c r="D41" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="195" t="s">
+      <c r="E41" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="194" t="s">
+      <c r="F41" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="208" t="s">
+      <c r="G41" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="208"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="208"/>
-      <c r="L41" s="208"/>
-      <c r="M41" s="208" t="s">
+      <c r="H41" s="216"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="216"/>
+      <c r="L41" s="216"/>
+      <c r="M41" s="216" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.8">
-      <c r="A42" s="194"/>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="208" t="s">
+      <c r="A42" s="204"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="208"/>
-      <c r="I42" s="208"/>
-      <c r="J42" s="208" t="s">
+      <c r="H42" s="216"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="208"/>
-      <c r="L42" s="208"/>
-      <c r="M42" s="208"/>
+      <c r="K42" s="216"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="216"/>
     </row>
     <row r="43" spans="1:13" ht="16.8">
-      <c r="A43" s="194"/>
-      <c r="B43" s="194"/>
-      <c r="C43" s="194"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="194"/>
+      <c r="A43" s="204"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="204"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="205"/>
+      <c r="F43" s="204"/>
       <c r="G43" s="19" t="s">
         <v>63</v>
       </c>
@@ -8271,24 +8280,24 @@
       <c r="L43" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M43" s="208"/>
+      <c r="M43" s="216"/>
     </row>
     <row r="44" spans="1:13" ht="16.8">
-      <c r="A44" s="228" t="s">
+      <c r="A44" s="231" t="s">
         <v>558</v>
       </c>
-      <c r="B44" s="228"/>
-      <c r="C44" s="228"/>
-      <c r="D44" s="228"/>
-      <c r="E44" s="228"/>
-      <c r="F44" s="228"/>
-      <c r="G44" s="228"/>
-      <c r="H44" s="230"/>
-      <c r="I44" s="228"/>
-      <c r="J44" s="228"/>
-      <c r="K44" s="228"/>
-      <c r="L44" s="228"/>
-      <c r="M44" s="228"/>
+      <c r="B44" s="231"/>
+      <c r="C44" s="231"/>
+      <c r="D44" s="231"/>
+      <c r="E44" s="231"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="231"/>
+      <c r="H44" s="232"/>
+      <c r="I44" s="231"/>
+      <c r="J44" s="231"/>
+      <c r="K44" s="231"/>
+      <c r="L44" s="231"/>
+      <c r="M44" s="231"/>
     </row>
     <row r="45" spans="1:13" ht="33.6">
       <c r="A45" s="22" t="s">
@@ -8508,21 +8517,21 @@
       <c r="M51" s="30"/>
     </row>
     <row r="52" spans="1:13" ht="16.8">
-      <c r="A52" s="193" t="s">
+      <c r="A52" s="203" t="s">
         <v>571</v>
       </c>
-      <c r="B52" s="193"/>
-      <c r="C52" s="193"/>
-      <c r="D52" s="193"/>
-      <c r="E52" s="193"/>
-      <c r="F52" s="193"/>
-      <c r="G52" s="193"/>
-      <c r="H52" s="229"/>
-      <c r="I52" s="193"/>
-      <c r="J52" s="193"/>
-      <c r="K52" s="193"/>
-      <c r="L52" s="193"/>
-      <c r="M52" s="193"/>
+      <c r="B52" s="203"/>
+      <c r="C52" s="203"/>
+      <c r="D52" s="203"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="203"/>
+      <c r="G52" s="203"/>
+      <c r="H52" s="233"/>
+      <c r="I52" s="203"/>
+      <c r="J52" s="203"/>
+      <c r="K52" s="203"/>
+      <c r="L52" s="203"/>
+      <c r="M52" s="203"/>
     </row>
     <row r="53" spans="1:13" ht="130.05000000000001" customHeight="1">
       <c r="A53" s="32" t="s">
@@ -8799,11 +8808,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A44:M44"/>
     <mergeCell ref="A52:M52"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
@@ -8812,6 +8816,11 @@
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="M41:M43"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="A44:M44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G45:G51 G53:G59 J45:J51 J53:J59" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -8827,7 +8836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
@@ -8872,13 +8881,13 @@
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="199" t="s">
         <v>602</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="18">
@@ -9039,62 +9048,62 @@
       <c r="AG11" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="16.8">
-      <c r="A41" s="194" t="s">
+      <c r="A41" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="194" t="s">
+      <c r="B41" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="194" t="s">
+      <c r="C41" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="194" t="s">
+      <c r="D41" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="195" t="s">
+      <c r="E41" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="194" t="s">
+      <c r="F41" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="208" t="s">
+      <c r="G41" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="208"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="208"/>
-      <c r="L41" s="208"/>
-      <c r="M41" s="208" t="s">
+      <c r="H41" s="216"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="216"/>
+      <c r="L41" s="216"/>
+      <c r="M41" s="216" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.8">
-      <c r="A42" s="194"/>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="208" t="s">
+      <c r="A42" s="204"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="208"/>
-      <c r="I42" s="208"/>
-      <c r="J42" s="208" t="s">
+      <c r="H42" s="216"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="208"/>
-      <c r="L42" s="208"/>
-      <c r="M42" s="208"/>
+      <c r="K42" s="216"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="216"/>
     </row>
     <row r="43" spans="1:13" ht="16.8">
-      <c r="A43" s="194"/>
-      <c r="B43" s="194"/>
-      <c r="C43" s="194"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="194"/>
+      <c r="A43" s="204"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="204"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="205"/>
+      <c r="F43" s="204"/>
       <c r="G43" s="19" t="s">
         <v>63</v>
       </c>
@@ -9113,24 +9122,24 @@
       <c r="L43" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M43" s="208"/>
+      <c r="M43" s="216"/>
     </row>
     <row r="44" spans="1:13" ht="16.8">
-      <c r="A44" s="228" t="s">
+      <c r="A44" s="231" t="s">
         <v>558</v>
       </c>
-      <c r="B44" s="228"/>
-      <c r="C44" s="228"/>
-      <c r="D44" s="228"/>
-      <c r="E44" s="228"/>
-      <c r="F44" s="228"/>
-      <c r="G44" s="228"/>
-      <c r="H44" s="230"/>
-      <c r="I44" s="228"/>
-      <c r="J44" s="228"/>
-      <c r="K44" s="228"/>
-      <c r="L44" s="228"/>
-      <c r="M44" s="228"/>
+      <c r="B44" s="231"/>
+      <c r="C44" s="231"/>
+      <c r="D44" s="231"/>
+      <c r="E44" s="231"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="231"/>
+      <c r="H44" s="232"/>
+      <c r="I44" s="231"/>
+      <c r="J44" s="231"/>
+      <c r="K44" s="231"/>
+      <c r="L44" s="231"/>
+      <c r="M44" s="231"/>
     </row>
     <row r="45" spans="1:13" ht="33.6">
       <c r="A45" s="22" t="s">
@@ -9573,21 +9582,21 @@
       <c r="M59" s="30"/>
     </row>
     <row r="60" spans="1:13" ht="16.8">
-      <c r="A60" s="220" t="s">
+      <c r="A60" s="225" t="s">
         <v>659</v>
       </c>
-      <c r="B60" s="216"/>
-      <c r="C60" s="216"/>
-      <c r="D60" s="216"/>
-      <c r="E60" s="216"/>
-      <c r="F60" s="216"/>
-      <c r="G60" s="216"/>
-      <c r="H60" s="216"/>
-      <c r="I60" s="216"/>
-      <c r="J60" s="216"/>
-      <c r="K60" s="216"/>
-      <c r="L60" s="216"/>
-      <c r="M60" s="217"/>
+      <c r="B60" s="220"/>
+      <c r="C60" s="220"/>
+      <c r="D60" s="220"/>
+      <c r="E60" s="220"/>
+      <c r="F60" s="220"/>
+      <c r="G60" s="220"/>
+      <c r="H60" s="220"/>
+      <c r="I60" s="220"/>
+      <c r="J60" s="220"/>
+      <c r="K60" s="220"/>
+      <c r="L60" s="220"/>
+      <c r="M60" s="221"/>
     </row>
     <row r="61" spans="1:13" ht="130.05000000000001" customHeight="1">
       <c r="A61" s="32" t="s">
@@ -10176,6 +10185,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="A44:M44"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
@@ -10183,12 +10198,6 @@
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F41:F43"/>
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A44:M44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="J61:J75 G61:G75 J45:J59 G45:G58" xr:uid="{00000000-0002-0000-0B00-000000000000}">
@@ -10204,7 +10213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
@@ -10249,13 +10258,13 @@
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="199" t="s">
         <v>681</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="18">
@@ -10416,62 +10425,62 @@
       <c r="AG11" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="16.8">
-      <c r="A41" s="194" t="s">
+      <c r="A41" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="194" t="s">
+      <c r="B41" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="194" t="s">
+      <c r="C41" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="194" t="s">
+      <c r="D41" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="195" t="s">
+      <c r="E41" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="194" t="s">
+      <c r="F41" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="208" t="s">
+      <c r="G41" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="208"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="208"/>
-      <c r="L41" s="208"/>
-      <c r="M41" s="208" t="s">
+      <c r="H41" s="216"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="216"/>
+      <c r="K41" s="216"/>
+      <c r="L41" s="216"/>
+      <c r="M41" s="216" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.8">
-      <c r="A42" s="194"/>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="195"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="208" t="s">
+      <c r="A42" s="204"/>
+      <c r="B42" s="204"/>
+      <c r="C42" s="204"/>
+      <c r="D42" s="204"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="204"/>
+      <c r="G42" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="208"/>
-      <c r="I42" s="208"/>
-      <c r="J42" s="208" t="s">
+      <c r="H42" s="216"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="208"/>
-      <c r="L42" s="208"/>
-      <c r="M42" s="208"/>
+      <c r="K42" s="216"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="216"/>
     </row>
     <row r="43" spans="1:13" ht="16.8">
-      <c r="A43" s="194"/>
-      <c r="B43" s="194"/>
-      <c r="C43" s="194"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="194"/>
+      <c r="A43" s="204"/>
+      <c r="B43" s="204"/>
+      <c r="C43" s="204"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="205"/>
+      <c r="F43" s="204"/>
       <c r="G43" s="19" t="s">
         <v>63</v>
       </c>
@@ -10490,24 +10499,24 @@
       <c r="L43" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M43" s="208"/>
+      <c r="M43" s="216"/>
     </row>
     <row r="44" spans="1:13" ht="27.6" customHeight="1">
-      <c r="A44" s="228" t="s">
+      <c r="A44" s="231" t="s">
         <v>712</v>
       </c>
-      <c r="B44" s="228"/>
-      <c r="C44" s="228"/>
-      <c r="D44" s="228"/>
-      <c r="E44" s="228"/>
-      <c r="F44" s="228"/>
-      <c r="G44" s="228"/>
-      <c r="H44" s="230"/>
-      <c r="I44" s="228"/>
-      <c r="J44" s="228"/>
-      <c r="K44" s="228"/>
-      <c r="L44" s="228"/>
-      <c r="M44" s="228"/>
+      <c r="B44" s="231"/>
+      <c r="C44" s="231"/>
+      <c r="D44" s="231"/>
+      <c r="E44" s="231"/>
+      <c r="F44" s="231"/>
+      <c r="G44" s="231"/>
+      <c r="H44" s="232"/>
+      <c r="I44" s="231"/>
+      <c r="J44" s="231"/>
+      <c r="K44" s="231"/>
+      <c r="L44" s="231"/>
+      <c r="M44" s="231"/>
     </row>
     <row r="45" spans="1:13" ht="44.4" customHeight="1">
       <c r="A45" s="22" t="s">
@@ -10665,21 +10674,21 @@
       <c r="M49" s="30"/>
     </row>
     <row r="50" spans="1:13" ht="28.8" customHeight="1">
-      <c r="A50" s="193" t="s">
+      <c r="A50" s="203" t="s">
         <v>713</v>
       </c>
-      <c r="B50" s="193"/>
-      <c r="C50" s="193"/>
-      <c r="D50" s="193"/>
-      <c r="E50" s="193"/>
-      <c r="F50" s="193"/>
-      <c r="G50" s="193"/>
-      <c r="H50" s="229"/>
-      <c r="I50" s="193"/>
-      <c r="J50" s="193"/>
-      <c r="K50" s="193"/>
-      <c r="L50" s="193"/>
-      <c r="M50" s="193"/>
+      <c r="B50" s="203"/>
+      <c r="C50" s="203"/>
+      <c r="D50" s="203"/>
+      <c r="E50" s="203"/>
+      <c r="F50" s="203"/>
+      <c r="G50" s="203"/>
+      <c r="H50" s="233"/>
+      <c r="I50" s="203"/>
+      <c r="J50" s="203"/>
+      <c r="K50" s="203"/>
+      <c r="L50" s="203"/>
+      <c r="M50" s="203"/>
     </row>
     <row r="51" spans="1:13" ht="84">
       <c r="A51" s="32" t="s">
@@ -10958,6 +10967,12 @@
     <row r="59" spans="1:13" ht="148.05000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="G41:L41"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
@@ -10965,12 +10980,6 @@
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F41:F43"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="G41:L41"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G51:G57 J51:J57 J45:J49 G45:G49" xr:uid="{00000000-0002-0000-0C00-000000000000}">
@@ -11002,24 +11011,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="97" customFormat="1" ht="24.6">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="179"/>
+      <c r="F1" s="179"/>
+      <c r="G1" s="179"/>
+      <c r="H1" s="179"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
+      <c r="K1" s="179"/>
+      <c r="L1" s="179"/>
+      <c r="M1" s="179"/>
+      <c r="N1" s="179"/>
+      <c r="O1" s="179"/>
+      <c r="P1" s="179"/>
     </row>
     <row r="2" spans="1:16" s="97" customFormat="1" ht="13.2">
       <c r="A2" s="100"/>
@@ -11043,22 +11052,22 @@
       <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="180" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="180"/>
       <c r="D3" s="103"/>
-      <c r="E3" s="179" t="s">
+      <c r="E3" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="187" t="s">
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="188"/>
-      <c r="J3" s="188"/>
-      <c r="K3" s="189"/>
+      <c r="I3" s="183"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="184"/>
       <c r="L3" s="142"/>
       <c r="M3" s="142"/>
       <c r="N3" s="142"/>
@@ -11067,20 +11076,20 @@
     </row>
     <row r="4" spans="1:16" s="97" customFormat="1" ht="16.8">
       <c r="A4" s="102"/>
-      <c r="B4" s="178"/>
-      <c r="C4" s="178"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
       <c r="D4" s="104"/>
-      <c r="E4" s="179" t="s">
+      <c r="E4" s="181" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="179"/>
-      <c r="G4" s="179"/>
-      <c r="H4" s="190" t="s">
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="192"/>
+      <c r="I4" s="187"/>
+      <c r="J4" s="187"/>
+      <c r="K4" s="188"/>
       <c r="L4" s="104"/>
       <c r="M4" s="142"/>
       <c r="N4" s="142"/>
@@ -11089,20 +11098,20 @@
     </row>
     <row r="5" spans="1:16" s="97" customFormat="1" ht="16.8">
       <c r="A5" s="102"/>
-      <c r="B5" s="178"/>
-      <c r="C5" s="178"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="185"/>
       <c r="D5" s="104"/>
-      <c r="E5" s="179" t="s">
+      <c r="E5" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="179"/>
-      <c r="G5" s="179"/>
-      <c r="H5" s="180">
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="191">
         <v>44114</v>
       </c>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="182"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="193"/>
       <c r="L5" s="104"/>
       <c r="M5" s="142"/>
       <c r="N5" s="142"/>
@@ -11113,18 +11122,18 @@
       <c r="A6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="183" t="s">
+      <c r="B6" s="194" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="183"/>
-      <c r="I6" s="183"/>
-      <c r="J6" s="183"/>
-      <c r="K6" s="183"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
       <c r="L6" s="106"/>
       <c r="M6" s="143"/>
       <c r="N6" s="143"/>
@@ -11134,52 +11143,52 @@
     <row r="7" spans="1:16" s="97" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="107"/>
       <c r="B7" s="108"/>
-      <c r="C7" s="184" t="s">
+      <c r="C7" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184" t="s">
+      <c r="D7" s="195"/>
+      <c r="E7" s="195" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="184"/>
-      <c r="G7" s="184" t="s">
+      <c r="F7" s="195"/>
+      <c r="G7" s="195" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="184"/>
-      <c r="I7" s="184" t="s">
+      <c r="H7" s="195"/>
+      <c r="I7" s="195" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="184"/>
-      <c r="K7" s="184" t="s">
+      <c r="J7" s="195"/>
+      <c r="K7" s="195" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="184"/>
-      <c r="M7" s="176" t="s">
+      <c r="L7" s="195"/>
+      <c r="M7" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="176"/>
-      <c r="O7" s="177" t="s">
+      <c r="N7" s="189"/>
+      <c r="O7" s="190" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="177"/>
+      <c r="P7" s="190"/>
     </row>
     <row r="8" spans="1:16" s="97" customFormat="1" ht="16.8">
       <c r="A8" s="109"/>
       <c r="B8" s="110"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="184"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="184"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="176"/>
-      <c r="N8" s="176"/>
-      <c r="O8" s="177"/>
-      <c r="P8" s="177"/>
+      <c r="C8" s="195"/>
+      <c r="D8" s="195"/>
+      <c r="E8" s="195"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="189"/>
+      <c r="N8" s="189"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="190"/>
     </row>
     <row r="9" spans="1:16" s="98" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="111" t="s">
@@ -11900,13 +11909,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:K4"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="B5:C5"/>
@@ -11918,6 +11920,13 @@
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -11928,7 +11937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BR27"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -11955,13 +11964,13 @@
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="196" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="198"/>
-      <c r="D1" s="198"/>
-      <c r="E1" s="198"/>
-      <c r="F1" s="199"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="198"/>
       <c r="G1" s="8"/>
       <c r="H1" s="37"/>
       <c r="I1" s="35"/>
@@ -11971,13 +11980,13 @@
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="199" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
       <c r="G2" s="8"/>
       <c r="H2" s="37"/>
       <c r="I2" s="35"/>
@@ -12066,62 +12075,62 @@
     <row r="9" spans="1:13" s="78" customFormat="1" ht="26.25" customHeight="1"/>
     <row r="10" spans="1:13" s="78" customFormat="1" ht="33" customHeight="1"/>
     <row r="11" spans="1:13" s="78" customFormat="1" ht="27" customHeight="1">
-      <c r="A11" s="194" t="s">
+      <c r="A11" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="194" t="s">
+      <c r="B11" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="194" t="s">
+      <c r="C11" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="194" t="s">
+      <c r="D11" s="204" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="195" t="s">
+      <c r="E11" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="194" t="s">
+      <c r="F11" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="196" t="s">
+      <c r="G11" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="196" t="s">
+      <c r="H11" s="202"/>
+      <c r="I11" s="202"/>
+      <c r="J11" s="202"/>
+      <c r="K11" s="202"/>
+      <c r="L11" s="202"/>
+      <c r="M11" s="202" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="78" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A12" s="194"/>
-      <c r="B12" s="194"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="194"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="194"/>
-      <c r="G12" s="196" t="s">
+      <c r="A12" s="204"/>
+      <c r="B12" s="204"/>
+      <c r="C12" s="204"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196" t="s">
+      <c r="H12" s="202"/>
+      <c r="I12" s="202"/>
+      <c r="J12" s="202" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
+      <c r="K12" s="202"/>
+      <c r="L12" s="202"/>
+      <c r="M12" s="202"/>
     </row>
     <row r="13" spans="1:13" s="78" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A13" s="194"/>
-      <c r="B13" s="194"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="194"/>
-      <c r="E13" s="195"/>
-      <c r="F13" s="194"/>
+      <c r="A13" s="204"/>
+      <c r="B13" s="204"/>
+      <c r="C13" s="204"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="204"/>
       <c r="G13" s="19" t="s">
         <v>63</v>
       </c>
@@ -12140,24 +12149,24 @@
       <c r="L13" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="196"/>
+      <c r="M13" s="202"/>
     </row>
     <row r="14" spans="1:13" s="78" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="193" t="s">
+      <c r="A14" s="203" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="193"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="193"/>
-      <c r="M14" s="193"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="203"/>
+      <c r="L14" s="203"/>
+      <c r="M14" s="203"/>
     </row>
     <row r="15" spans="1:13" s="78" customFormat="1" ht="48.75" customHeight="1">
       <c r="A15" s="23" t="s">
@@ -12367,10 +12376,10 @@
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="231"/>
+      <c r="I19" s="171"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
-      <c r="L19" s="231"/>
+      <c r="L19" s="171"/>
       <c r="M19" s="31"/>
     </row>
     <row r="20" spans="1:70" ht="60" customHeight="1">
@@ -12556,11 +12565,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
     <mergeCell ref="A14:M14"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
@@ -12569,6 +12573,11 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="M11:M13"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G15:G18 G20:G27 J15:J18 J20:J27" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -12585,8 +12594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -12606,25 +12615,25 @@
       <c r="A1" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="234" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
+      <c r="C1" s="235"/>
+      <c r="D1" s="235"/>
+      <c r="E1" s="235"/>
+      <c r="F1" s="236"/>
     </row>
     <row r="2" spans="1:6" ht="16.8">
       <c r="A2" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="210" t="s">
+      <c r="B2" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="210"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1">
       <c r="A3" s="24"/>
@@ -12687,62 +12696,62 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="17.399999999999999">
-      <c r="A42" s="206" t="s">
+      <c r="A42" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="206" t="s">
+      <c r="B42" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="206" t="s">
+      <c r="C42" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="206" t="s">
+      <c r="D42" s="214" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="207" t="s">
+      <c r="E42" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="206" t="s">
+      <c r="F42" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="211" t="s">
+      <c r="G42" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="211"/>
-      <c r="I42" s="211"/>
-      <c r="J42" s="211"/>
-      <c r="K42" s="211"/>
-      <c r="L42" s="211"/>
-      <c r="M42" s="208" t="s">
+      <c r="H42" s="207"/>
+      <c r="I42" s="207"/>
+      <c r="J42" s="207"/>
+      <c r="K42" s="207"/>
+      <c r="L42" s="207"/>
+      <c r="M42" s="216" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="17.399999999999999">
-      <c r="A43" s="206"/>
-      <c r="B43" s="206"/>
-      <c r="C43" s="206"/>
-      <c r="D43" s="206"/>
-      <c r="E43" s="207"/>
-      <c r="F43" s="206"/>
-      <c r="G43" s="211" t="s">
+      <c r="A43" s="214"/>
+      <c r="B43" s="214"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="214"/>
+      <c r="E43" s="215"/>
+      <c r="F43" s="214"/>
+      <c r="G43" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="211"/>
-      <c r="I43" s="211"/>
-      <c r="J43" s="211" t="s">
+      <c r="H43" s="207"/>
+      <c r="I43" s="207"/>
+      <c r="J43" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="K43" s="211"/>
-      <c r="L43" s="211"/>
-      <c r="M43" s="209"/>
+      <c r="K43" s="207"/>
+      <c r="L43" s="207"/>
+      <c r="M43" s="217"/>
     </row>
     <row r="44" spans="1:13" ht="15.6">
-      <c r="A44" s="206"/>
-      <c r="B44" s="206"/>
-      <c r="C44" s="206"/>
-      <c r="D44" s="206"/>
-      <c r="E44" s="207"/>
-      <c r="F44" s="206"/>
+      <c r="A44" s="214"/>
+      <c r="B44" s="214"/>
+      <c r="C44" s="214"/>
+      <c r="D44" s="214"/>
+      <c r="E44" s="215"/>
+      <c r="F44" s="214"/>
       <c r="G44" s="52" t="s">
         <v>63</v>
       </c>
@@ -12761,24 +12770,24 @@
       <c r="L44" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="M44" s="209"/>
+      <c r="M44" s="217"/>
     </row>
     <row r="45" spans="1:13" ht="15.6">
-      <c r="A45" s="212" t="s">
+      <c r="A45" s="208" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="213"/>
-      <c r="C45" s="213"/>
-      <c r="D45" s="213"/>
-      <c r="E45" s="213"/>
-      <c r="F45" s="213"/>
-      <c r="G45" s="213"/>
-      <c r="H45" s="213"/>
-      <c r="I45" s="213"/>
-      <c r="J45" s="213"/>
-      <c r="K45" s="213"/>
-      <c r="L45" s="213"/>
-      <c r="M45" s="214"/>
+      <c r="B45" s="209"/>
+      <c r="C45" s="209"/>
+      <c r="D45" s="209"/>
+      <c r="E45" s="209"/>
+      <c r="F45" s="209"/>
+      <c r="G45" s="209"/>
+      <c r="H45" s="209"/>
+      <c r="I45" s="209"/>
+      <c r="J45" s="209"/>
+      <c r="K45" s="209"/>
+      <c r="L45" s="209"/>
+      <c r="M45" s="210"/>
     </row>
     <row r="46" spans="1:13" ht="33.6">
       <c r="A46" s="54" t="s">
@@ -13122,21 +13131,21 @@
       <c r="M54" s="67"/>
     </row>
     <row r="55" spans="1:14" ht="36" customHeight="1">
-      <c r="A55" s="203" t="s">
+      <c r="A55" s="211" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="204"/>
-      <c r="C55" s="204"/>
-      <c r="D55" s="204"/>
-      <c r="E55" s="204"/>
-      <c r="F55" s="204"/>
-      <c r="G55" s="204"/>
-      <c r="H55" s="204"/>
-      <c r="I55" s="204"/>
-      <c r="J55" s="204"/>
-      <c r="K55" s="204"/>
-      <c r="L55" s="204"/>
-      <c r="M55" s="205"/>
+      <c r="B55" s="212"/>
+      <c r="C55" s="212"/>
+      <c r="D55" s="212"/>
+      <c r="E55" s="212"/>
+      <c r="F55" s="212"/>
+      <c r="G55" s="212"/>
+      <c r="H55" s="212"/>
+      <c r="I55" s="212"/>
+      <c r="J55" s="212"/>
+      <c r="K55" s="212"/>
+      <c r="L55" s="212"/>
+      <c r="M55" s="213"/>
       <c r="N55" s="68"/>
     </row>
     <row r="56" spans="1:14" ht="144" customHeight="1">
@@ -13374,12 +13383,8 @@
       <c r="M61" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G42:L42"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="A45:M45"/>
+  <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="A55:M55"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="B42:B44"/>
@@ -13388,6 +13393,11 @@
     <mergeCell ref="E42:E44"/>
     <mergeCell ref="F42:F44"/>
     <mergeCell ref="M42:M44"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="A45:M45"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G46:G54 G56:G61 J46:J54 J56:J61" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -13403,7 +13413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
@@ -13440,13 +13450,13 @@
       <c r="A2" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="10"/>
@@ -13508,62 +13518,62 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.399999999999999">
-      <c r="A30" s="206" t="s">
+      <c r="A30" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="206" t="s">
+      <c r="B30" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="206" t="s">
+      <c r="C30" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="206" t="s">
+      <c r="D30" s="214" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="207" t="s">
+      <c r="E30" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="206" t="s">
+      <c r="F30" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="211" t="s">
+      <c r="G30" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="211"/>
-      <c r="I30" s="211"/>
-      <c r="J30" s="211"/>
-      <c r="K30" s="211"/>
-      <c r="L30" s="211"/>
-      <c r="M30" s="208" t="s">
+      <c r="H30" s="207"/>
+      <c r="I30" s="207"/>
+      <c r="J30" s="207"/>
+      <c r="K30" s="207"/>
+      <c r="L30" s="207"/>
+      <c r="M30" s="216" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.399999999999999">
-      <c r="A31" s="206"/>
-      <c r="B31" s="206"/>
-      <c r="C31" s="206"/>
-      <c r="D31" s="206"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="206"/>
-      <c r="G31" s="211" t="s">
+      <c r="A31" s="214"/>
+      <c r="B31" s="214"/>
+      <c r="C31" s="214"/>
+      <c r="D31" s="214"/>
+      <c r="E31" s="215"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="211"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="211" t="s">
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="211"/>
-      <c r="L31" s="211"/>
-      <c r="M31" s="209"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="217"/>
     </row>
     <row r="32" spans="1:13" ht="15.6">
-      <c r="A32" s="206"/>
-      <c r="B32" s="206"/>
-      <c r="C32" s="206"/>
-      <c r="D32" s="206"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="206"/>
+      <c r="A32" s="214"/>
+      <c r="B32" s="214"/>
+      <c r="C32" s="214"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="215"/>
+      <c r="F32" s="214"/>
       <c r="G32" s="52" t="s">
         <v>63</v>
       </c>
@@ -13582,24 +13592,24 @@
       <c r="L32" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="209"/>
+      <c r="M32" s="217"/>
     </row>
     <row r="33" spans="1:13" ht="15.6">
       <c r="A33" s="218" t="s">
         <v>597</v>
       </c>
-      <c r="B33" s="213"/>
-      <c r="C33" s="213"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="213"/>
-      <c r="G33" s="213"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="213"/>
-      <c r="L33" s="213"/>
-      <c r="M33" s="214"/>
+      <c r="B33" s="209"/>
+      <c r="C33" s="209"/>
+      <c r="D33" s="209"/>
+      <c r="E33" s="209"/>
+      <c r="F33" s="209"/>
+      <c r="G33" s="209"/>
+      <c r="H33" s="209"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="209"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="209"/>
+      <c r="M33" s="210"/>
     </row>
     <row r="34" spans="1:13" ht="33.6">
       <c r="A34" s="54" t="s">
@@ -13719,21 +13729,21 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.8">
-      <c r="A38" s="215" t="s">
+      <c r="A38" s="219" t="s">
         <v>598</v>
       </c>
-      <c r="B38" s="216"/>
-      <c r="C38" s="216"/>
-      <c r="D38" s="216"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
-      <c r="G38" s="216"/>
-      <c r="H38" s="216"/>
-      <c r="I38" s="216"/>
-      <c r="J38" s="216"/>
-      <c r="K38" s="216"/>
-      <c r="L38" s="216"/>
-      <c r="M38" s="217"/>
+      <c r="B38" s="220"/>
+      <c r="C38" s="220"/>
+      <c r="D38" s="220"/>
+      <c r="E38" s="220"/>
+      <c r="F38" s="220"/>
+      <c r="G38" s="220"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="220"/>
+      <c r="J38" s="220"/>
+      <c r="K38" s="220"/>
+      <c r="L38" s="220"/>
+      <c r="M38" s="221"/>
     </row>
     <row r="39" spans="1:13" ht="70.05" customHeight="1">
       <c r="A39" s="70" t="s">
@@ -13932,11 +13942,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="A33:M33"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="B30:B32"/>
@@ -13945,6 +13950,11 @@
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="M30:M32"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="A33:M33"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G34:G36 G39:G43 J34:J36 J39:J43" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -13960,7 +13970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
@@ -13985,7 +13995,7 @@
       <c r="A1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="196" t="s">
         <v>601</v>
       </c>
       <c r="C1" s="222"/>
@@ -13997,13 +14007,13 @@
       <c r="A2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="10"/>
@@ -14052,62 +14062,62 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.399999999999999">
-      <c r="A38" s="194" t="s">
+      <c r="A38" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="194" t="s">
+      <c r="B38" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="194" t="s">
+      <c r="C38" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="194" t="s">
+      <c r="D38" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="195" t="s">
+      <c r="E38" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="194" t="s">
+      <c r="F38" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="211" t="s">
+      <c r="G38" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="211"/>
-      <c r="I38" s="211"/>
-      <c r="J38" s="211"/>
-      <c r="K38" s="211"/>
-      <c r="L38" s="211"/>
-      <c r="M38" s="208" t="s">
+      <c r="H38" s="207"/>
+      <c r="I38" s="207"/>
+      <c r="J38" s="207"/>
+      <c r="K38" s="207"/>
+      <c r="L38" s="207"/>
+      <c r="M38" s="216" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="17.399999999999999">
-      <c r="A39" s="194"/>
-      <c r="B39" s="194"/>
-      <c r="C39" s="194"/>
-      <c r="D39" s="194"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="194"/>
-      <c r="G39" s="211" t="s">
+      <c r="A39" s="204"/>
+      <c r="B39" s="204"/>
+      <c r="C39" s="204"/>
+      <c r="D39" s="204"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="211"/>
-      <c r="I39" s="211"/>
-      <c r="J39" s="211" t="s">
+      <c r="H39" s="207"/>
+      <c r="I39" s="207"/>
+      <c r="J39" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="K39" s="211"/>
-      <c r="L39" s="211"/>
-      <c r="M39" s="221"/>
+      <c r="K39" s="207"/>
+      <c r="L39" s="207"/>
+      <c r="M39" s="226"/>
     </row>
     <row r="40" spans="1:13" ht="16.8">
-      <c r="A40" s="194"/>
-      <c r="B40" s="194"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="195"/>
-      <c r="F40" s="194"/>
+      <c r="A40" s="204"/>
+      <c r="B40" s="204"/>
+      <c r="C40" s="204"/>
+      <c r="D40" s="204"/>
+      <c r="E40" s="205"/>
+      <c r="F40" s="204"/>
       <c r="G40" s="19" t="s">
         <v>63</v>
       </c>
@@ -14126,24 +14136,24 @@
       <c r="L40" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="M40" s="221"/>
+      <c r="M40" s="226"/>
     </row>
     <row r="41" spans="1:13" ht="16.8">
-      <c r="A41" s="219" t="s">
+      <c r="A41" s="224" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="219"/>
-      <c r="C41" s="219"/>
-      <c r="D41" s="219"/>
-      <c r="E41" s="219"/>
-      <c r="F41" s="219"/>
-      <c r="G41" s="219"/>
-      <c r="H41" s="219"/>
-      <c r="I41" s="219"/>
-      <c r="J41" s="219"/>
-      <c r="K41" s="219"/>
-      <c r="L41" s="219"/>
-      <c r="M41" s="219"/>
+      <c r="B41" s="224"/>
+      <c r="C41" s="224"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="224"/>
+      <c r="I41" s="224"/>
+      <c r="J41" s="224"/>
+      <c r="K41" s="224"/>
+      <c r="L41" s="224"/>
+      <c r="M41" s="224"/>
     </row>
     <row r="42" spans="1:13" ht="33.6">
       <c r="A42" s="54" t="s">
@@ -14746,21 +14756,21 @@
       <c r="M57" s="67"/>
     </row>
     <row r="58" spans="1:14" ht="16.8">
-      <c r="A58" s="220" t="s">
+      <c r="A58" s="225" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="216"/>
-      <c r="C58" s="216"/>
-      <c r="D58" s="216"/>
-      <c r="E58" s="216"/>
-      <c r="F58" s="216"/>
-      <c r="G58" s="216"/>
-      <c r="H58" s="216"/>
-      <c r="I58" s="216"/>
-      <c r="J58" s="216"/>
-      <c r="K58" s="216"/>
-      <c r="L58" s="216"/>
-      <c r="M58" s="217"/>
+      <c r="B58" s="220"/>
+      <c r="C58" s="220"/>
+      <c r="D58" s="220"/>
+      <c r="E58" s="220"/>
+      <c r="F58" s="220"/>
+      <c r="G58" s="220"/>
+      <c r="H58" s="220"/>
+      <c r="I58" s="220"/>
+      <c r="J58" s="220"/>
+      <c r="K58" s="220"/>
+      <c r="L58" s="220"/>
+      <c r="M58" s="221"/>
       <c r="N58" s="68"/>
     </row>
     <row r="59" spans="1:14" ht="174" customHeight="1">
@@ -15311,11 +15321,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G38:L38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
     <mergeCell ref="A41:M41"/>
     <mergeCell ref="A58:M58"/>
     <mergeCell ref="A38:A40"/>
@@ -15325,6 +15330,11 @@
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="F38:F40"/>
     <mergeCell ref="M38:M40"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G42:G57 G59:G72 J42:J57 J59:J72" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -15340,7 +15350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K42" sqref="K42:K49"/>
     </sheetView>
   </sheetViews>
@@ -15376,10 +15386,10 @@
       <c r="B2" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="10"/>
@@ -15442,62 +15452,62 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.399999999999999">
-      <c r="A31" s="194" t="s">
+      <c r="A31" s="204" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="194" t="s">
+      <c r="B31" s="204" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="194" t="s">
+      <c r="C31" s="204" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="194" t="s">
+      <c r="D31" s="204" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="195" t="s">
+      <c r="E31" s="205" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="194" t="s">
+      <c r="F31" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="211" t="s">
+      <c r="G31" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="211"/>
-      <c r="I31" s="211"/>
-      <c r="J31" s="211"/>
-      <c r="K31" s="211"/>
-      <c r="L31" s="211"/>
-      <c r="M31" s="208" t="s">
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="207"/>
+      <c r="K31" s="207"/>
+      <c r="L31" s="207"/>
+      <c r="M31" s="216" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.399999999999999">
-      <c r="A32" s="194"/>
-      <c r="B32" s="194"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="194"/>
-      <c r="E32" s="195"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="211" t="s">
+      <c r="A32" s="204"/>
+      <c r="B32" s="204"/>
+      <c r="C32" s="204"/>
+      <c r="D32" s="204"/>
+      <c r="E32" s="205"/>
+      <c r="F32" s="204"/>
+      <c r="G32" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="211"/>
-      <c r="I32" s="211"/>
-      <c r="J32" s="211" t="s">
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="211"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="221"/>
+      <c r="K32" s="207"/>
+      <c r="L32" s="207"/>
+      <c r="M32" s="226"/>
     </row>
     <row r="33" spans="1:14" ht="16.8">
-      <c r="A33" s="194"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="194"/>
-      <c r="E33" s="195"/>
-      <c r="F33" s="194"/>
+      <c r="A33" s="204"/>
+      <c r="B33" s="204"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="205"/>
+      <c r="F33" s="204"/>
       <c r="G33" s="19" t="s">
         <v>63</v>
       </c>
@@ -15516,24 +15526,24 @@
       <c r="L33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="M33" s="221"/>
+      <c r="M33" s="226"/>
     </row>
     <row r="34" spans="1:14" ht="16.8">
-      <c r="A34" s="219" t="s">
+      <c r="A34" s="224" t="s">
         <v>257</v>
       </c>
-      <c r="B34" s="219"/>
-      <c r="C34" s="219"/>
-      <c r="D34" s="219"/>
-      <c r="E34" s="219"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="219"/>
-      <c r="H34" s="219"/>
-      <c r="I34" s="219"/>
-      <c r="J34" s="219"/>
-      <c r="K34" s="219"/>
-      <c r="L34" s="219"/>
-      <c r="M34" s="219"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="224"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="224"/>
     </row>
     <row r="35" spans="1:14" ht="53.25" customHeight="1">
       <c r="A35" s="62" t="s">
@@ -15769,21 +15779,21 @@
       <c r="N40" s="58"/>
     </row>
     <row r="41" spans="1:14" ht="16.8">
-      <c r="A41" s="224" t="s">
+      <c r="A41" s="228" t="s">
         <v>269</v>
       </c>
-      <c r="B41" s="225"/>
-      <c r="C41" s="225"/>
-      <c r="D41" s="225"/>
-      <c r="E41" s="225"/>
-      <c r="F41" s="225"/>
-      <c r="G41" s="225"/>
-      <c r="H41" s="225"/>
-      <c r="I41" s="225"/>
-      <c r="J41" s="225"/>
-      <c r="K41" s="225"/>
-      <c r="L41" s="225"/>
-      <c r="M41" s="226"/>
+      <c r="B41" s="229"/>
+      <c r="C41" s="229"/>
+      <c r="D41" s="229"/>
+      <c r="E41" s="229"/>
+      <c r="F41" s="229"/>
+      <c r="G41" s="229"/>
+      <c r="H41" s="229"/>
+      <c r="I41" s="229"/>
+      <c r="J41" s="229"/>
+      <c r="K41" s="229"/>
+      <c r="L41" s="229"/>
+      <c r="M41" s="230"/>
     </row>
     <row r="42" spans="1:14" ht="184.95" customHeight="1">
       <c r="A42" s="26" t="s">
@@ -16097,11 +16107,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="A34:M34"/>
     <mergeCell ref="A41:M41"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B31:B33"/>
@@ -16110,6 +16115,11 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="M31:M33"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="A34:M34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G35:G40 G42:G49 J35:J40 J42:J49" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -16125,7 +16135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
@@ -16150,7 +16160,7 @@
       <c r="A1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="197" t="s">
+      <c r="B1" s="196" t="s">
         <v>601</v>
       </c>
       <c r="C1" s="222"/>
@@ -16165,10 +16175,10 @@
       <c r="B2" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="10"/>
@@ -16217,62 +16227,62 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="17.399999999999999">
-      <c r="A40" s="206" t="s">
+      <c r="A40" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="206" t="s">
+      <c r="B40" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="206" t="s">
+      <c r="C40" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="206" t="s">
+      <c r="D40" s="214" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="207" t="s">
+      <c r="E40" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="206" t="s">
+      <c r="F40" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="211" t="s">
+      <c r="G40" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="211"/>
-      <c r="I40" s="211"/>
-      <c r="J40" s="211"/>
-      <c r="K40" s="211"/>
-      <c r="L40" s="211"/>
-      <c r="M40" s="208" t="s">
+      <c r="H40" s="207"/>
+      <c r="I40" s="207"/>
+      <c r="J40" s="207"/>
+      <c r="K40" s="207"/>
+      <c r="L40" s="207"/>
+      <c r="M40" s="216" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="17.399999999999999">
-      <c r="A41" s="206"/>
-      <c r="B41" s="206"/>
-      <c r="C41" s="206"/>
-      <c r="D41" s="206"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="206"/>
-      <c r="G41" s="211" t="s">
+      <c r="A41" s="214"/>
+      <c r="B41" s="214"/>
+      <c r="C41" s="214"/>
+      <c r="D41" s="214"/>
+      <c r="E41" s="215"/>
+      <c r="F41" s="214"/>
+      <c r="G41" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="211"/>
-      <c r="I41" s="211"/>
-      <c r="J41" s="211" t="s">
+      <c r="H41" s="207"/>
+      <c r="I41" s="207"/>
+      <c r="J41" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="K41" s="211"/>
-      <c r="L41" s="211"/>
-      <c r="M41" s="209"/>
+      <c r="K41" s="207"/>
+      <c r="L41" s="207"/>
+      <c r="M41" s="217"/>
     </row>
     <row r="42" spans="1:13" ht="15.6">
-      <c r="A42" s="206"/>
-      <c r="B42" s="206"/>
-      <c r="C42" s="206"/>
-      <c r="D42" s="206"/>
-      <c r="E42" s="207"/>
-      <c r="F42" s="206"/>
+      <c r="A42" s="214"/>
+      <c r="B42" s="214"/>
+      <c r="C42" s="214"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="215"/>
+      <c r="F42" s="214"/>
       <c r="G42" s="52" t="s">
         <v>63</v>
       </c>
@@ -16291,24 +16301,24 @@
       <c r="L42" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="M42" s="209"/>
+      <c r="M42" s="217"/>
     </row>
     <row r="43" spans="1:13" ht="15.6">
-      <c r="A43" s="212" t="s">
+      <c r="A43" s="208" t="s">
         <v>300</v>
       </c>
-      <c r="B43" s="213"/>
-      <c r="C43" s="213"/>
-      <c r="D43" s="213"/>
-      <c r="E43" s="213"/>
-      <c r="F43" s="213"/>
-      <c r="G43" s="213"/>
-      <c r="H43" s="213"/>
-      <c r="I43" s="213"/>
-      <c r="J43" s="213"/>
-      <c r="K43" s="213"/>
-      <c r="L43" s="213"/>
-      <c r="M43" s="214"/>
+      <c r="B43" s="209"/>
+      <c r="C43" s="209"/>
+      <c r="D43" s="209"/>
+      <c r="E43" s="209"/>
+      <c r="F43" s="209"/>
+      <c r="G43" s="209"/>
+      <c r="H43" s="209"/>
+      <c r="I43" s="209"/>
+      <c r="J43" s="209"/>
+      <c r="K43" s="209"/>
+      <c r="L43" s="209"/>
+      <c r="M43" s="210"/>
     </row>
     <row r="44" spans="1:13" ht="33.6">
       <c r="A44" s="54" t="s">
@@ -16995,21 +17005,21 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="16.8">
-      <c r="A64" s="203" t="s">
+      <c r="A64" s="211" t="s">
         <v>337</v>
       </c>
-      <c r="B64" s="204"/>
-      <c r="C64" s="204"/>
-      <c r="D64" s="204"/>
-      <c r="E64" s="204"/>
-      <c r="F64" s="204"/>
-      <c r="G64" s="204"/>
-      <c r="H64" s="204"/>
-      <c r="I64" s="204"/>
-      <c r="J64" s="204"/>
-      <c r="K64" s="204"/>
-      <c r="L64" s="204"/>
-      <c r="M64" s="205"/>
+      <c r="B64" s="212"/>
+      <c r="C64" s="212"/>
+      <c r="D64" s="212"/>
+      <c r="E64" s="212"/>
+      <c r="F64" s="212"/>
+      <c r="G64" s="212"/>
+      <c r="H64" s="212"/>
+      <c r="I64" s="212"/>
+      <c r="J64" s="212"/>
+      <c r="K64" s="212"/>
+      <c r="L64" s="212"/>
+      <c r="M64" s="213"/>
     </row>
     <row r="65" spans="1:14" ht="81" customHeight="1">
       <c r="A65" s="26" t="s">
@@ -17638,11 +17648,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
     <mergeCell ref="A43:M43"/>
     <mergeCell ref="A64:M64"/>
     <mergeCell ref="A40:A42"/>
@@ -17652,6 +17657,11 @@
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="F40:F42"/>
     <mergeCell ref="M40:M42"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G44:G63 G65:G80 J44:J63 J65:J80" xr:uid="{00000000-0002-0000-0700-000000000000}">
@@ -17668,7 +17678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="K46" sqref="K46:K51"/>
     </sheetView>
   </sheetViews>
@@ -17704,13 +17714,13 @@
       <c r="A2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="199" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
@@ -17773,62 +17783,62 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.399999999999999">
-      <c r="A32" s="206" t="s">
+      <c r="A32" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="206" t="s">
+      <c r="B32" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="206" t="s">
+      <c r="C32" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="206" t="s">
+      <c r="D32" s="214" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="207" t="s">
+      <c r="E32" s="215" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="206" t="s">
+      <c r="F32" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="211" t="s">
+      <c r="G32" s="207" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="211"/>
-      <c r="I32" s="211"/>
-      <c r="J32" s="211"/>
-      <c r="K32" s="211"/>
-      <c r="L32" s="211"/>
-      <c r="M32" s="208" t="s">
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="207"/>
+      <c r="L32" s="207"/>
+      <c r="M32" s="216" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.399999999999999">
-      <c r="A33" s="206"/>
-      <c r="B33" s="206"/>
-      <c r="C33" s="206"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="207"/>
-      <c r="F33" s="206"/>
-      <c r="G33" s="211" t="s">
+      <c r="A33" s="214"/>
+      <c r="B33" s="214"/>
+      <c r="C33" s="214"/>
+      <c r="D33" s="214"/>
+      <c r="E33" s="215"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="211"/>
-      <c r="I33" s="211"/>
-      <c r="J33" s="211" t="s">
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="211"/>
-      <c r="L33" s="211"/>
-      <c r="M33" s="209"/>
+      <c r="K33" s="207"/>
+      <c r="L33" s="207"/>
+      <c r="M33" s="217"/>
     </row>
     <row r="34" spans="1:14" ht="15.6">
-      <c r="A34" s="206"/>
-      <c r="B34" s="206"/>
-      <c r="C34" s="206"/>
-      <c r="D34" s="206"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="206"/>
+      <c r="A34" s="214"/>
+      <c r="B34" s="214"/>
+      <c r="C34" s="214"/>
+      <c r="D34" s="214"/>
+      <c r="E34" s="215"/>
+      <c r="F34" s="214"/>
       <c r="G34" s="52" t="s">
         <v>63</v>
       </c>
@@ -17847,24 +17857,24 @@
       <c r="L34" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="M34" s="209"/>
+      <c r="M34" s="217"/>
     </row>
     <row r="35" spans="1:14" ht="15.6">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="208" t="s">
         <v>388</v>
       </c>
-      <c r="B35" s="213"/>
-      <c r="C35" s="213"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="213"/>
-      <c r="K35" s="213"/>
-      <c r="L35" s="213"/>
-      <c r="M35" s="214"/>
+      <c r="B35" s="209"/>
+      <c r="C35" s="209"/>
+      <c r="D35" s="209"/>
+      <c r="E35" s="209"/>
+      <c r="F35" s="209"/>
+      <c r="G35" s="209"/>
+      <c r="H35" s="209"/>
+      <c r="I35" s="209"/>
+      <c r="J35" s="209"/>
+      <c r="K35" s="209"/>
+      <c r="L35" s="209"/>
+      <c r="M35" s="210"/>
     </row>
     <row r="36" spans="1:14" ht="33.6">
       <c r="A36" s="54" t="s">
@@ -18193,21 +18203,21 @@
       <c r="N44" s="58"/>
     </row>
     <row r="45" spans="1:14" ht="16.8">
-      <c r="A45" s="203" t="s">
+      <c r="A45" s="211" t="s">
         <v>402</v>
       </c>
-      <c r="B45" s="204"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="204"/>
-      <c r="F45" s="204"/>
-      <c r="G45" s="204"/>
-      <c r="H45" s="204"/>
-      <c r="I45" s="204"/>
-      <c r="J45" s="204"/>
-      <c r="K45" s="204"/>
-      <c r="L45" s="204"/>
-      <c r="M45" s="205"/>
+      <c r="B45" s="212"/>
+      <c r="C45" s="212"/>
+      <c r="D45" s="212"/>
+      <c r="E45" s="212"/>
+      <c r="F45" s="212"/>
+      <c r="G45" s="212"/>
+      <c r="H45" s="212"/>
+      <c r="I45" s="212"/>
+      <c r="J45" s="212"/>
+      <c r="K45" s="212"/>
+      <c r="L45" s="212"/>
+      <c r="M45" s="213"/>
     </row>
     <row r="46" spans="1:14" ht="121.05" customHeight="1">
       <c r="A46" s="26" t="s">
@@ -18448,11 +18458,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="A35:M35"/>
     <mergeCell ref="A45:M45"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="B32:B34"/>
@@ -18461,6 +18466,11 @@
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:F34"/>
     <mergeCell ref="M32:M34"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="A35:M35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G36:G44 G46:G51 J36:J44 J46:J51" xr:uid="{00000000-0002-0000-0800-000000000000}">

--- a/Document/8.3.ProjectTestCaseSprint3.xlsx
+++ b/Document/8.3.ProjectTestCaseSprint3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_Document\Document_DaSua\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B557E2-6CE7-4296-9B22-D648341B7A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095199A6-35B8-4434-9A80-BE562BACFCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="810" firstSheet="6" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3847,15 +3847,39 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3865,9 +3889,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3877,26 +3898,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="13" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3916,17 +3928,35 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3943,38 +3973,26 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3982,44 +4000,26 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -5751,7 +5751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:CF92"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A58" sqref="A58:G58"/>
     </sheetView>
   </sheetViews>
@@ -5796,13 +5796,13 @@
       <c r="A2" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="203" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:84" s="1" customFormat="1" ht="18">
@@ -6118,62 +6118,62 @@
       <c r="CF11" s="42"/>
     </row>
     <row r="22" spans="1:13" ht="16.8">
-      <c r="A22" s="204" t="s">
+      <c r="A22" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="204" t="s">
+      <c r="B22" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="204" t="s">
+      <c r="C22" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="204" t="s">
+      <c r="D22" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="205" t="s">
+      <c r="E22" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="204" t="s">
+      <c r="F22" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="216" t="s">
+      <c r="G22" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="216"/>
-      <c r="I22" s="216"/>
-      <c r="J22" s="216"/>
-      <c r="K22" s="216"/>
-      <c r="L22" s="216"/>
-      <c r="M22" s="216" t="s">
+      <c r="H22" s="214"/>
+      <c r="I22" s="214"/>
+      <c r="J22" s="214"/>
+      <c r="K22" s="214"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="214" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="16.8">
-      <c r="A23" s="204"/>
-      <c r="B23" s="204"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="216" t="s">
+      <c r="A23" s="197"/>
+      <c r="B23" s="197"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="216"/>
-      <c r="I23" s="216"/>
-      <c r="J23" s="216" t="s">
+      <c r="H23" s="214"/>
+      <c r="I23" s="214"/>
+      <c r="J23" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="216"/>
-      <c r="L23" s="216"/>
-      <c r="M23" s="216"/>
+      <c r="K23" s="214"/>
+      <c r="L23" s="214"/>
+      <c r="M23" s="214"/>
     </row>
     <row r="24" spans="1:13" ht="16.8">
-      <c r="A24" s="204"/>
-      <c r="B24" s="204"/>
-      <c r="C24" s="204"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="204"/>
+      <c r="A24" s="197"/>
+      <c r="B24" s="197"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="197"/>
       <c r="G24" s="19" t="s">
         <v>63</v>
       </c>
@@ -6192,24 +6192,24 @@
       <c r="L24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M24" s="216"/>
+      <c r="M24" s="214"/>
     </row>
     <row r="25" spans="1:13" ht="16.8">
-      <c r="A25" s="231" t="s">
+      <c r="A25" s="234" t="s">
         <v>428</v>
       </c>
-      <c r="B25" s="231"/>
-      <c r="C25" s="231"/>
-      <c r="D25" s="231"/>
-      <c r="E25" s="231"/>
-      <c r="F25" s="231"/>
-      <c r="G25" s="231"/>
-      <c r="H25" s="231"/>
-      <c r="I25" s="231"/>
-      <c r="J25" s="231"/>
-      <c r="K25" s="231"/>
-      <c r="L25" s="231"/>
-      <c r="M25" s="231"/>
+      <c r="B25" s="234"/>
+      <c r="C25" s="234"/>
+      <c r="D25" s="234"/>
+      <c r="E25" s="234"/>
+      <c r="F25" s="234"/>
+      <c r="G25" s="234"/>
+      <c r="H25" s="234"/>
+      <c r="I25" s="234"/>
+      <c r="J25" s="234"/>
+      <c r="K25" s="234"/>
+      <c r="L25" s="234"/>
+      <c r="M25" s="234"/>
     </row>
     <row r="26" spans="1:13" ht="33.6">
       <c r="A26" s="22" t="s">
@@ -7042,21 +7042,21 @@
       <c r="M51" s="30"/>
     </row>
     <row r="52" spans="1:13" ht="16.8">
-      <c r="A52" s="203" t="s">
+      <c r="A52" s="196" t="s">
         <v>476</v>
       </c>
-      <c r="B52" s="203"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="203"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="203"/>
-      <c r="H52" s="203"/>
-      <c r="I52" s="203"/>
-      <c r="J52" s="203"/>
-      <c r="K52" s="203"/>
-      <c r="L52" s="203"/>
-      <c r="M52" s="203"/>
+      <c r="B52" s="196"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="196"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="196"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="196"/>
+      <c r="K52" s="196"/>
+      <c r="L52" s="196"/>
+      <c r="M52" s="196"/>
     </row>
     <row r="53" spans="1:13" ht="105" customHeight="1">
       <c r="A53" s="32" t="s">
@@ -7965,6 +7965,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G22:L22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A25:M25"/>
     <mergeCell ref="A52:M52"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
@@ -7973,11 +7978,6 @@
     <mergeCell ref="E22:E24"/>
     <mergeCell ref="F22:F24"/>
     <mergeCell ref="M22:M24"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G22:L22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A25:M25"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G26:G51 G53:G74 J26:J51 J53:J74" xr:uid="{00000000-0002-0000-0900-000000000000}">
@@ -7994,7 +7994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -8039,13 +8039,13 @@
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="203" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="18">
@@ -8206,62 +8206,62 @@
       <c r="AG11" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="16.8">
-      <c r="A41" s="204" t="s">
+      <c r="A41" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="204" t="s">
+      <c r="B41" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="204" t="s">
+      <c r="C41" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="204" t="s">
+      <c r="D41" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="205" t="s">
+      <c r="E41" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="204" t="s">
+      <c r="F41" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="216" t="s">
+      <c r="G41" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="216"/>
-      <c r="I41" s="216"/>
-      <c r="J41" s="216"/>
-      <c r="K41" s="216"/>
-      <c r="L41" s="216"/>
-      <c r="M41" s="216" t="s">
+      <c r="H41" s="214"/>
+      <c r="I41" s="214"/>
+      <c r="J41" s="214"/>
+      <c r="K41" s="214"/>
+      <c r="L41" s="214"/>
+      <c r="M41" s="214" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.8">
-      <c r="A42" s="204"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="216" t="s">
+      <c r="A42" s="197"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="216"/>
-      <c r="I42" s="216"/>
-      <c r="J42" s="216" t="s">
+      <c r="H42" s="214"/>
+      <c r="I42" s="214"/>
+      <c r="J42" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="216"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
+      <c r="K42" s="214"/>
+      <c r="L42" s="214"/>
+      <c r="M42" s="214"/>
     </row>
     <row r="43" spans="1:13" ht="16.8">
-      <c r="A43" s="204"/>
-      <c r="B43" s="204"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="205"/>
-      <c r="F43" s="204"/>
+      <c r="A43" s="197"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="198"/>
+      <c r="F43" s="197"/>
       <c r="G43" s="19" t="s">
         <v>63</v>
       </c>
@@ -8280,24 +8280,24 @@
       <c r="L43" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M43" s="216"/>
+      <c r="M43" s="214"/>
     </row>
     <row r="44" spans="1:13" ht="16.8">
-      <c r="A44" s="231" t="s">
+      <c r="A44" s="234" t="s">
         <v>558</v>
       </c>
-      <c r="B44" s="231"/>
-      <c r="C44" s="231"/>
-      <c r="D44" s="231"/>
-      <c r="E44" s="231"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="231"/>
-      <c r="H44" s="232"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="231"/>
-      <c r="K44" s="231"/>
-      <c r="L44" s="231"/>
-      <c r="M44" s="231"/>
+      <c r="B44" s="234"/>
+      <c r="C44" s="234"/>
+      <c r="D44" s="234"/>
+      <c r="E44" s="234"/>
+      <c r="F44" s="234"/>
+      <c r="G44" s="234"/>
+      <c r="H44" s="236"/>
+      <c r="I44" s="234"/>
+      <c r="J44" s="234"/>
+      <c r="K44" s="234"/>
+      <c r="L44" s="234"/>
+      <c r="M44" s="234"/>
     </row>
     <row r="45" spans="1:13" ht="33.6">
       <c r="A45" s="22" t="s">
@@ -8517,21 +8517,21 @@
       <c r="M51" s="30"/>
     </row>
     <row r="52" spans="1:13" ht="16.8">
-      <c r="A52" s="203" t="s">
+      <c r="A52" s="196" t="s">
         <v>571</v>
       </c>
-      <c r="B52" s="203"/>
-      <c r="C52" s="203"/>
-      <c r="D52" s="203"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="203"/>
-      <c r="H52" s="233"/>
-      <c r="I52" s="203"/>
-      <c r="J52" s="203"/>
-      <c r="K52" s="203"/>
-      <c r="L52" s="203"/>
-      <c r="M52" s="203"/>
+      <c r="B52" s="196"/>
+      <c r="C52" s="196"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="196"/>
+      <c r="F52" s="196"/>
+      <c r="G52" s="196"/>
+      <c r="H52" s="235"/>
+      <c r="I52" s="196"/>
+      <c r="J52" s="196"/>
+      <c r="K52" s="196"/>
+      <c r="L52" s="196"/>
+      <c r="M52" s="196"/>
     </row>
     <row r="53" spans="1:13" ht="130.05000000000001" customHeight="1">
       <c r="A53" s="32" t="s">
@@ -8808,6 +8808,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="A44:M44"/>
     <mergeCell ref="A52:M52"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
@@ -8816,11 +8821,6 @@
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F41:F43"/>
     <mergeCell ref="M41:M43"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A44:M44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G45:G51 G53:G59 J45:J51 J53:J59" xr:uid="{00000000-0002-0000-0A00-000000000000}">
@@ -8836,7 +8836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="R68" sqref="R68"/>
     </sheetView>
   </sheetViews>
@@ -8881,13 +8881,13 @@
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="203" t="s">
         <v>602</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="18">
@@ -9048,62 +9048,62 @@
       <c r="AG11" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="16.8">
-      <c r="A41" s="204" t="s">
+      <c r="A41" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="204" t="s">
+      <c r="B41" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="204" t="s">
+      <c r="C41" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="204" t="s">
+      <c r="D41" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="205" t="s">
+      <c r="E41" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="204" t="s">
+      <c r="F41" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="216" t="s">
+      <c r="G41" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="216"/>
-      <c r="I41" s="216"/>
-      <c r="J41" s="216"/>
-      <c r="K41" s="216"/>
-      <c r="L41" s="216"/>
-      <c r="M41" s="216" t="s">
+      <c r="H41" s="214"/>
+      <c r="I41" s="214"/>
+      <c r="J41" s="214"/>
+      <c r="K41" s="214"/>
+      <c r="L41" s="214"/>
+      <c r="M41" s="214" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.8">
-      <c r="A42" s="204"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="216" t="s">
+      <c r="A42" s="197"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="216"/>
-      <c r="I42" s="216"/>
-      <c r="J42" s="216" t="s">
+      <c r="H42" s="214"/>
+      <c r="I42" s="214"/>
+      <c r="J42" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="216"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
+      <c r="K42" s="214"/>
+      <c r="L42" s="214"/>
+      <c r="M42" s="214"/>
     </row>
     <row r="43" spans="1:13" ht="16.8">
-      <c r="A43" s="204"/>
-      <c r="B43" s="204"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="205"/>
-      <c r="F43" s="204"/>
+      <c r="A43" s="197"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="198"/>
+      <c r="F43" s="197"/>
       <c r="G43" s="19" t="s">
         <v>63</v>
       </c>
@@ -9122,24 +9122,24 @@
       <c r="L43" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M43" s="216"/>
+      <c r="M43" s="214"/>
     </row>
     <row r="44" spans="1:13" ht="16.8">
-      <c r="A44" s="231" t="s">
+      <c r="A44" s="234" t="s">
         <v>558</v>
       </c>
-      <c r="B44" s="231"/>
-      <c r="C44" s="231"/>
-      <c r="D44" s="231"/>
-      <c r="E44" s="231"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="231"/>
-      <c r="H44" s="232"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="231"/>
-      <c r="K44" s="231"/>
-      <c r="L44" s="231"/>
-      <c r="M44" s="231"/>
+      <c r="B44" s="234"/>
+      <c r="C44" s="234"/>
+      <c r="D44" s="234"/>
+      <c r="E44" s="234"/>
+      <c r="F44" s="234"/>
+      <c r="G44" s="234"/>
+      <c r="H44" s="236"/>
+      <c r="I44" s="234"/>
+      <c r="J44" s="234"/>
+      <c r="K44" s="234"/>
+      <c r="L44" s="234"/>
+      <c r="M44" s="234"/>
     </row>
     <row r="45" spans="1:13" ht="33.6">
       <c r="A45" s="22" t="s">
@@ -9582,21 +9582,21 @@
       <c r="M59" s="30"/>
     </row>
     <row r="60" spans="1:13" ht="16.8">
-      <c r="A60" s="225" t="s">
+      <c r="A60" s="226" t="s">
         <v>659</v>
       </c>
-      <c r="B60" s="220"/>
-      <c r="C60" s="220"/>
-      <c r="D60" s="220"/>
-      <c r="E60" s="220"/>
-      <c r="F60" s="220"/>
-      <c r="G60" s="220"/>
-      <c r="H60" s="220"/>
-      <c r="I60" s="220"/>
-      <c r="J60" s="220"/>
-      <c r="K60" s="220"/>
-      <c r="L60" s="220"/>
-      <c r="M60" s="221"/>
+      <c r="B60" s="222"/>
+      <c r="C60" s="222"/>
+      <c r="D60" s="222"/>
+      <c r="E60" s="222"/>
+      <c r="F60" s="222"/>
+      <c r="G60" s="222"/>
+      <c r="H60" s="222"/>
+      <c r="I60" s="222"/>
+      <c r="J60" s="222"/>
+      <c r="K60" s="222"/>
+      <c r="L60" s="222"/>
+      <c r="M60" s="223"/>
     </row>
     <row r="61" spans="1:13" ht="130.05000000000001" customHeight="1">
       <c r="A61" s="32" t="s">
@@ -10185,12 +10185,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A60:M60"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A44:M44"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
@@ -10198,6 +10192,12 @@
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F41:F43"/>
+    <mergeCell ref="A60:M60"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="A44:M44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="J61:J75 G61:G75 J45:J59 G45:G58" xr:uid="{00000000-0002-0000-0B00-000000000000}">
@@ -10213,7 +10213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AG59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="T57" sqref="T57"/>
     </sheetView>
   </sheetViews>
@@ -10258,13 +10258,13 @@
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="203" t="s">
         <v>681</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:33" s="1" customFormat="1" ht="18">
@@ -10425,62 +10425,62 @@
       <c r="AG11" s="42"/>
     </row>
     <row r="41" spans="1:13" ht="16.8">
-      <c r="A41" s="204" t="s">
+      <c r="A41" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="204" t="s">
+      <c r="B41" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="204" t="s">
+      <c r="C41" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="D41" s="204" t="s">
+      <c r="D41" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="205" t="s">
+      <c r="E41" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="F41" s="204" t="s">
+      <c r="F41" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="G41" s="216" t="s">
+      <c r="G41" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="H41" s="216"/>
-      <c r="I41" s="216"/>
-      <c r="J41" s="216"/>
-      <c r="K41" s="216"/>
-      <c r="L41" s="216"/>
-      <c r="M41" s="216" t="s">
+      <c r="H41" s="214"/>
+      <c r="I41" s="214"/>
+      <c r="J41" s="214"/>
+      <c r="K41" s="214"/>
+      <c r="L41" s="214"/>
+      <c r="M41" s="214" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="16.8">
-      <c r="A42" s="204"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="216" t="s">
+      <c r="A42" s="197"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="198"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="216"/>
-      <c r="I42" s="216"/>
-      <c r="J42" s="216" t="s">
+      <c r="H42" s="214"/>
+      <c r="I42" s="214"/>
+      <c r="J42" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="216"/>
-      <c r="L42" s="216"/>
-      <c r="M42" s="216"/>
+      <c r="K42" s="214"/>
+      <c r="L42" s="214"/>
+      <c r="M42" s="214"/>
     </row>
     <row r="43" spans="1:13" ht="16.8">
-      <c r="A43" s="204"/>
-      <c r="B43" s="204"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="205"/>
-      <c r="F43" s="204"/>
+      <c r="A43" s="197"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="198"/>
+      <c r="F43" s="197"/>
       <c r="G43" s="19" t="s">
         <v>63</v>
       </c>
@@ -10499,24 +10499,24 @@
       <c r="L43" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="M43" s="216"/>
+      <c r="M43" s="214"/>
     </row>
     <row r="44" spans="1:13" ht="27.6" customHeight="1">
-      <c r="A44" s="231" t="s">
+      <c r="A44" s="234" t="s">
         <v>712</v>
       </c>
-      <c r="B44" s="231"/>
-      <c r="C44" s="231"/>
-      <c r="D44" s="231"/>
-      <c r="E44" s="231"/>
-      <c r="F44" s="231"/>
-      <c r="G44" s="231"/>
-      <c r="H44" s="232"/>
-      <c r="I44" s="231"/>
-      <c r="J44" s="231"/>
-      <c r="K44" s="231"/>
-      <c r="L44" s="231"/>
-      <c r="M44" s="231"/>
+      <c r="B44" s="234"/>
+      <c r="C44" s="234"/>
+      <c r="D44" s="234"/>
+      <c r="E44" s="234"/>
+      <c r="F44" s="234"/>
+      <c r="G44" s="234"/>
+      <c r="H44" s="236"/>
+      <c r="I44" s="234"/>
+      <c r="J44" s="234"/>
+      <c r="K44" s="234"/>
+      <c r="L44" s="234"/>
+      <c r="M44" s="234"/>
     </row>
     <row r="45" spans="1:13" ht="44.4" customHeight="1">
       <c r="A45" s="22" t="s">
@@ -10674,21 +10674,21 @@
       <c r="M49" s="30"/>
     </row>
     <row r="50" spans="1:13" ht="28.8" customHeight="1">
-      <c r="A50" s="203" t="s">
+      <c r="A50" s="196" t="s">
         <v>713</v>
       </c>
-      <c r="B50" s="203"/>
-      <c r="C50" s="203"/>
-      <c r="D50" s="203"/>
-      <c r="E50" s="203"/>
-      <c r="F50" s="203"/>
-      <c r="G50" s="203"/>
-      <c r="H50" s="233"/>
-      <c r="I50" s="203"/>
-      <c r="J50" s="203"/>
-      <c r="K50" s="203"/>
-      <c r="L50" s="203"/>
-      <c r="M50" s="203"/>
+      <c r="B50" s="196"/>
+      <c r="C50" s="196"/>
+      <c r="D50" s="196"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="196"/>
+      <c r="G50" s="196"/>
+      <c r="H50" s="235"/>
+      <c r="I50" s="196"/>
+      <c r="J50" s="196"/>
+      <c r="K50" s="196"/>
+      <c r="L50" s="196"/>
+      <c r="M50" s="196"/>
     </row>
     <row r="51" spans="1:13" ht="84">
       <c r="A51" s="32" t="s">
@@ -10967,12 +10967,6 @@
     <row r="59" spans="1:13" ht="148.05000000000001" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M41:M43"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="A44:M44"/>
-    <mergeCell ref="A50:M50"/>
-    <mergeCell ref="G41:L41"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A41:A43"/>
     <mergeCell ref="B41:B43"/>
@@ -10980,6 +10974,12 @@
     <mergeCell ref="D41:D43"/>
     <mergeCell ref="E41:E43"/>
     <mergeCell ref="F41:F43"/>
+    <mergeCell ref="M41:M43"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="A44:M44"/>
+    <mergeCell ref="A50:M50"/>
+    <mergeCell ref="G41:L41"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G51:G57 J51:J57 J45:J49 G45:G49" xr:uid="{00000000-0002-0000-0C00-000000000000}">
@@ -11011,24 +11011,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="97" customFormat="1" ht="24.6">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
-      <c r="E1" s="179"/>
-      <c r="F1" s="179"/>
-      <c r="G1" s="179"/>
-      <c r="H1" s="179"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
-      <c r="K1" s="179"/>
-      <c r="L1" s="179"/>
-      <c r="M1" s="179"/>
-      <c r="N1" s="179"/>
-      <c r="O1" s="179"/>
-      <c r="P1" s="179"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="188"/>
     </row>
     <row r="2" spans="1:16" s="97" customFormat="1" ht="13.2">
       <c r="A2" s="100"/>
@@ -11052,22 +11052,22 @@
       <c r="A3" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="180"/>
+      <c r="C3" s="189"/>
       <c r="D3" s="103"/>
-      <c r="E3" s="181" t="s">
+      <c r="E3" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="182" t="s">
+      <c r="F3" s="182"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="183"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="184"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="192"/>
       <c r="L3" s="142"/>
       <c r="M3" s="142"/>
       <c r="N3" s="142"/>
@@ -11076,20 +11076,20 @@
     </row>
     <row r="4" spans="1:16" s="97" customFormat="1" ht="16.8">
       <c r="A4" s="102"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
       <c r="D4" s="104"/>
-      <c r="E4" s="181" t="s">
+      <c r="E4" s="182" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="186" t="s">
+      <c r="F4" s="182"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="193" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="187"/>
-      <c r="J4" s="187"/>
-      <c r="K4" s="188"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="195"/>
       <c r="L4" s="104"/>
       <c r="M4" s="142"/>
       <c r="N4" s="142"/>
@@ -11098,20 +11098,20 @@
     </row>
     <row r="5" spans="1:16" s="97" customFormat="1" ht="16.8">
       <c r="A5" s="102"/>
-      <c r="B5" s="185"/>
-      <c r="C5" s="185"/>
+      <c r="B5" s="181"/>
+      <c r="C5" s="181"/>
       <c r="D5" s="104"/>
-      <c r="E5" s="181" t="s">
+      <c r="E5" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="191">
+      <c r="F5" s="182"/>
+      <c r="G5" s="182"/>
+      <c r="H5" s="183">
         <v>44114</v>
       </c>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="193"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="185"/>
       <c r="L5" s="104"/>
       <c r="M5" s="142"/>
       <c r="N5" s="142"/>
@@ -11122,18 +11122,18 @@
       <c r="A6" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
       <c r="L6" s="106"/>
       <c r="M6" s="143"/>
       <c r="N6" s="143"/>
@@ -11143,52 +11143,52 @@
     <row r="7" spans="1:16" s="97" customFormat="1" ht="20.25" customHeight="1">
       <c r="A7" s="107"/>
       <c r="B7" s="108"/>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195" t="s">
+      <c r="D7" s="187"/>
+      <c r="E7" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195" t="s">
+      <c r="F7" s="187"/>
+      <c r="G7" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195" t="s">
+      <c r="H7" s="187"/>
+      <c r="I7" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195" t="s">
+      <c r="J7" s="187"/>
+      <c r="K7" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="195"/>
-      <c r="M7" s="189" t="s">
+      <c r="L7" s="187"/>
+      <c r="M7" s="179" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="189"/>
-      <c r="O7" s="190" t="s">
+      <c r="N7" s="179"/>
+      <c r="O7" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="190"/>
+      <c r="P7" s="180"/>
     </row>
     <row r="8" spans="1:16" s="97" customFormat="1" ht="16.8">
       <c r="A8" s="109"/>
       <c r="B8" s="110"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="195"/>
-      <c r="E8" s="195"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="189"/>
-      <c r="N8" s="189"/>
-      <c r="O8" s="190"/>
-      <c r="P8" s="190"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
+      <c r="E8" s="187"/>
+      <c r="F8" s="187"/>
+      <c r="G8" s="187"/>
+      <c r="H8" s="187"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="187"/>
+      <c r="K8" s="187"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="180"/>
+      <c r="P8" s="180"/>
     </row>
     <row r="9" spans="1:16" s="98" customFormat="1" ht="22.5" customHeight="1">
       <c r="A9" s="111" t="s">
@@ -11909,6 +11909,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:K4"/>
     <mergeCell ref="M7:N8"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="B5:C5"/>
@@ -11920,13 +11927,6 @@
     <mergeCell ref="G7:H8"/>
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="K7:L8"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -11937,7 +11937,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BR27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -11964,13 +11964,13 @@
       <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="200" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="198"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="201"/>
+      <c r="E1" s="201"/>
+      <c r="F1" s="202"/>
       <c r="G1" s="8"/>
       <c r="H1" s="37"/>
       <c r="I1" s="35"/>
@@ -11980,13 +11980,13 @@
       <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
       <c r="G2" s="8"/>
       <c r="H2" s="37"/>
       <c r="I2" s="35"/>
@@ -12075,62 +12075,62 @@
     <row r="9" spans="1:13" s="78" customFormat="1" ht="26.25" customHeight="1"/>
     <row r="10" spans="1:13" s="78" customFormat="1" ht="33" customHeight="1"/>
     <row r="11" spans="1:13" s="78" customFormat="1" ht="27" customHeight="1">
-      <c r="A11" s="204" t="s">
+      <c r="A11" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="204" t="s">
+      <c r="B11" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="204" t="s">
+      <c r="C11" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="204" t="s">
+      <c r="D11" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="205" t="s">
+      <c r="E11" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="204" t="s">
+      <c r="F11" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="202" t="s">
+      <c r="G11" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="202"/>
-      <c r="I11" s="202"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-      <c r="L11" s="202"/>
-      <c r="M11" s="202" t="s">
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="199"/>
+      <c r="K11" s="199"/>
+      <c r="L11" s="199"/>
+      <c r="M11" s="199" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="78" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A12" s="204"/>
-      <c r="B12" s="204"/>
-      <c r="C12" s="204"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="202" t="s">
+      <c r="A12" s="197"/>
+      <c r="B12" s="197"/>
+      <c r="C12" s="197"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="198"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="199" t="s">
         <v>32</v>
       </c>
-      <c r="H12" s="202"/>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202" t="s">
+      <c r="H12" s="199"/>
+      <c r="I12" s="199"/>
+      <c r="J12" s="199" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="202"/>
-      <c r="L12" s="202"/>
-      <c r="M12" s="202"/>
+      <c r="K12" s="199"/>
+      <c r="L12" s="199"/>
+      <c r="M12" s="199"/>
     </row>
     <row r="13" spans="1:13" s="78" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A13" s="204"/>
-      <c r="B13" s="204"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="204"/>
+      <c r="A13" s="197"/>
+      <c r="B13" s="197"/>
+      <c r="C13" s="197"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="197"/>
       <c r="G13" s="19" t="s">
         <v>63</v>
       </c>
@@ -12149,24 +12149,24 @@
       <c r="L13" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="202"/>
+      <c r="M13" s="199"/>
     </row>
     <row r="14" spans="1:13" s="78" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A14" s="203" t="s">
+      <c r="A14" s="196" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
-      <c r="I14" s="203"/>
-      <c r="J14" s="203"/>
-      <c r="K14" s="203"/>
-      <c r="L14" s="203"/>
-      <c r="M14" s="203"/>
+      <c r="B14" s="196"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="196"/>
+      <c r="F14" s="196"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="196"/>
+      <c r="L14" s="196"/>
+      <c r="M14" s="196"/>
     </row>
     <row r="15" spans="1:13" s="78" customFormat="1" ht="48.75" customHeight="1">
       <c r="A15" s="23" t="s">
@@ -12565,6 +12565,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G11:L11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:L12"/>
     <mergeCell ref="A14:M14"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
@@ -12573,11 +12578,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="F11:F13"/>
     <mergeCell ref="M11:M13"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G11:L11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:L12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G15:G18 G20:G27 J15:J18 J20:J27" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -12594,7 +12594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
@@ -12615,25 +12615,25 @@
       <c r="A1" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="234" t="s">
+      <c r="B1" s="206" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="235"/>
-      <c r="D1" s="235"/>
-      <c r="E1" s="235"/>
-      <c r="F1" s="236"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="208"/>
     </row>
     <row r="2" spans="1:6" ht="16.8">
       <c r="A2" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
     </row>
     <row r="3" spans="1:6" ht="36" customHeight="1">
       <c r="A3" s="24"/>
@@ -12696,62 +12696,62 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="17.399999999999999">
-      <c r="A42" s="214" t="s">
+      <c r="A42" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="214" t="s">
+      <c r="B42" s="212" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="214" t="s">
+      <c r="C42" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="214" t="s">
+      <c r="D42" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="E42" s="215" t="s">
+      <c r="E42" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="214" t="s">
+      <c r="F42" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="207" t="s">
+      <c r="G42" s="217" t="s">
         <v>61</v>
       </c>
-      <c r="H42" s="207"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="207"/>
-      <c r="K42" s="207"/>
-      <c r="L42" s="207"/>
-      <c r="M42" s="216" t="s">
+      <c r="H42" s="217"/>
+      <c r="I42" s="217"/>
+      <c r="J42" s="217"/>
+      <c r="K42" s="217"/>
+      <c r="L42" s="217"/>
+      <c r="M42" s="214" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="17.399999999999999">
-      <c r="A43" s="214"/>
-      <c r="B43" s="214"/>
-      <c r="C43" s="214"/>
-      <c r="D43" s="214"/>
-      <c r="E43" s="215"/>
-      <c r="F43" s="214"/>
-      <c r="G43" s="207" t="s">
+      <c r="A43" s="212"/>
+      <c r="B43" s="212"/>
+      <c r="C43" s="212"/>
+      <c r="D43" s="212"/>
+      <c r="E43" s="213"/>
+      <c r="F43" s="212"/>
+      <c r="G43" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="207"/>
-      <c r="I43" s="207"/>
-      <c r="J43" s="207" t="s">
+      <c r="H43" s="217"/>
+      <c r="I43" s="217"/>
+      <c r="J43" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="K43" s="207"/>
-      <c r="L43" s="207"/>
-      <c r="M43" s="217"/>
+      <c r="K43" s="217"/>
+      <c r="L43" s="217"/>
+      <c r="M43" s="215"/>
     </row>
     <row r="44" spans="1:13" ht="15.6">
-      <c r="A44" s="214"/>
-      <c r="B44" s="214"/>
-      <c r="C44" s="214"/>
-      <c r="D44" s="214"/>
-      <c r="E44" s="215"/>
-      <c r="F44" s="214"/>
+      <c r="A44" s="212"/>
+      <c r="B44" s="212"/>
+      <c r="C44" s="212"/>
+      <c r="D44" s="212"/>
+      <c r="E44" s="213"/>
+      <c r="F44" s="212"/>
       <c r="G44" s="52" t="s">
         <v>63</v>
       </c>
@@ -12770,24 +12770,24 @@
       <c r="L44" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="M44" s="217"/>
+      <c r="M44" s="215"/>
     </row>
     <row r="45" spans="1:13" ht="15.6">
-      <c r="A45" s="208" t="s">
+      <c r="A45" s="218" t="s">
         <v>92</v>
       </c>
-      <c r="B45" s="209"/>
-      <c r="C45" s="209"/>
-      <c r="D45" s="209"/>
-      <c r="E45" s="209"/>
-      <c r="F45" s="209"/>
-      <c r="G45" s="209"/>
-      <c r="H45" s="209"/>
-      <c r="I45" s="209"/>
-      <c r="J45" s="209"/>
-      <c r="K45" s="209"/>
-      <c r="L45" s="209"/>
-      <c r="M45" s="210"/>
+      <c r="B45" s="219"/>
+      <c r="C45" s="219"/>
+      <c r="D45" s="219"/>
+      <c r="E45" s="219"/>
+      <c r="F45" s="219"/>
+      <c r="G45" s="219"/>
+      <c r="H45" s="219"/>
+      <c r="I45" s="219"/>
+      <c r="J45" s="219"/>
+      <c r="K45" s="219"/>
+      <c r="L45" s="219"/>
+      <c r="M45" s="220"/>
     </row>
     <row r="46" spans="1:13" ht="33.6">
       <c r="A46" s="54" t="s">
@@ -13131,21 +13131,21 @@
       <c r="M54" s="67"/>
     </row>
     <row r="55" spans="1:14" ht="36" customHeight="1">
-      <c r="A55" s="211" t="s">
+      <c r="A55" s="209" t="s">
         <v>115</v>
       </c>
-      <c r="B55" s="212"/>
-      <c r="C55" s="212"/>
-      <c r="D55" s="212"/>
-      <c r="E55" s="212"/>
-      <c r="F55" s="212"/>
-      <c r="G55" s="212"/>
-      <c r="H55" s="212"/>
-      <c r="I55" s="212"/>
-      <c r="J55" s="212"/>
-      <c r="K55" s="212"/>
-      <c r="L55" s="212"/>
-      <c r="M55" s="213"/>
+      <c r="B55" s="210"/>
+      <c r="C55" s="210"/>
+      <c r="D55" s="210"/>
+      <c r="E55" s="210"/>
+      <c r="F55" s="210"/>
+      <c r="G55" s="210"/>
+      <c r="H55" s="210"/>
+      <c r="I55" s="210"/>
+      <c r="J55" s="210"/>
+      <c r="K55" s="210"/>
+      <c r="L55" s="210"/>
+      <c r="M55" s="211"/>
       <c r="N55" s="68"/>
     </row>
     <row r="56" spans="1:14" ht="144" customHeight="1">
@@ -13413,7 +13413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
@@ -13450,13 +13450,13 @@
       <c r="A2" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="10"/>
@@ -13518,62 +13518,62 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="17.399999999999999">
-      <c r="A30" s="214" t="s">
+      <c r="A30" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="214" t="s">
+      <c r="B30" s="212" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="214" t="s">
+      <c r="C30" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="214" t="s">
+      <c r="D30" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="214" t="s">
+      <c r="F30" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="G30" s="207" t="s">
+      <c r="G30" s="217" t="s">
         <v>61</v>
       </c>
-      <c r="H30" s="207"/>
-      <c r="I30" s="207"/>
-      <c r="J30" s="207"/>
-      <c r="K30" s="207"/>
-      <c r="L30" s="207"/>
-      <c r="M30" s="216" t="s">
+      <c r="H30" s="217"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="217"/>
+      <c r="L30" s="217"/>
+      <c r="M30" s="214" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.399999999999999">
-      <c r="A31" s="214"/>
-      <c r="B31" s="214"/>
-      <c r="C31" s="214"/>
-      <c r="D31" s="214"/>
-      <c r="E31" s="215"/>
-      <c r="F31" s="214"/>
-      <c r="G31" s="207" t="s">
+      <c r="A31" s="212"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="207"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="207" t="s">
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="207"/>
-      <c r="L31" s="207"/>
-      <c r="M31" s="217"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="217"/>
+      <c r="M31" s="215"/>
     </row>
     <row r="32" spans="1:13" ht="15.6">
-      <c r="A32" s="214"/>
-      <c r="B32" s="214"/>
-      <c r="C32" s="214"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="215"/>
-      <c r="F32" s="214"/>
+      <c r="A32" s="212"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="213"/>
+      <c r="F32" s="212"/>
       <c r="G32" s="52" t="s">
         <v>63</v>
       </c>
@@ -13592,24 +13592,24 @@
       <c r="L32" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="M32" s="217"/>
+      <c r="M32" s="215"/>
     </row>
     <row r="33" spans="1:13" ht="15.6">
-      <c r="A33" s="218" t="s">
+      <c r="A33" s="224" t="s">
         <v>597</v>
       </c>
-      <c r="B33" s="209"/>
-      <c r="C33" s="209"/>
-      <c r="D33" s="209"/>
-      <c r="E33" s="209"/>
-      <c r="F33" s="209"/>
-      <c r="G33" s="209"/>
-      <c r="H33" s="209"/>
-      <c r="I33" s="209"/>
-      <c r="J33" s="209"/>
-      <c r="K33" s="209"/>
-      <c r="L33" s="209"/>
-      <c r="M33" s="210"/>
+      <c r="B33" s="219"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="219"/>
+      <c r="K33" s="219"/>
+      <c r="L33" s="219"/>
+      <c r="M33" s="220"/>
     </row>
     <row r="34" spans="1:13" ht="33.6">
       <c r="A34" s="54" t="s">
@@ -13729,21 +13729,21 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="16.8">
-      <c r="A38" s="219" t="s">
+      <c r="A38" s="221" t="s">
         <v>598</v>
       </c>
-      <c r="B38" s="220"/>
-      <c r="C38" s="220"/>
-      <c r="D38" s="220"/>
-      <c r="E38" s="220"/>
-      <c r="F38" s="220"/>
-      <c r="G38" s="220"/>
-      <c r="H38" s="220"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="220"/>
-      <c r="K38" s="220"/>
-      <c r="L38" s="220"/>
-      <c r="M38" s="221"/>
+      <c r="B38" s="222"/>
+      <c r="C38" s="222"/>
+      <c r="D38" s="222"/>
+      <c r="E38" s="222"/>
+      <c r="F38" s="222"/>
+      <c r="G38" s="222"/>
+      <c r="H38" s="222"/>
+      <c r="I38" s="222"/>
+      <c r="J38" s="222"/>
+      <c r="K38" s="222"/>
+      <c r="L38" s="222"/>
+      <c r="M38" s="223"/>
     </row>
     <row r="39" spans="1:13" ht="70.05" customHeight="1">
       <c r="A39" s="70" t="s">
@@ -13942,6 +13942,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="A33:M33"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="B30:B32"/>
@@ -13950,11 +13955,6 @@
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="M30:M32"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="A33:M33"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G34:G36 G39:G43 J34:J36 J39:J43" xr:uid="{00000000-0002-0000-0400-000000000000}">
@@ -13970,7 +13970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
@@ -13995,25 +13995,25 @@
       <c r="A1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="200" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="223"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="229"/>
     </row>
     <row r="2" spans="1:6" ht="22.8">
       <c r="A2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="10"/>
@@ -14062,62 +14062,62 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="17.399999999999999">
-      <c r="A38" s="204" t="s">
+      <c r="A38" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="204" t="s">
+      <c r="B38" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="204" t="s">
+      <c r="C38" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="204" t="s">
+      <c r="D38" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="205" t="s">
+      <c r="E38" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="204" t="s">
+      <c r="F38" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="G38" s="207" t="s">
+      <c r="G38" s="217" t="s">
         <v>61</v>
       </c>
-      <c r="H38" s="207"/>
-      <c r="I38" s="207"/>
-      <c r="J38" s="207"/>
-      <c r="K38" s="207"/>
-      <c r="L38" s="207"/>
-      <c r="M38" s="216" t="s">
+      <c r="H38" s="217"/>
+      <c r="I38" s="217"/>
+      <c r="J38" s="217"/>
+      <c r="K38" s="217"/>
+      <c r="L38" s="217"/>
+      <c r="M38" s="214" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="17.399999999999999">
-      <c r="A39" s="204"/>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="204"/>
-      <c r="E39" s="205"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="207" t="s">
+      <c r="A39" s="197"/>
+      <c r="B39" s="197"/>
+      <c r="C39" s="197"/>
+      <c r="D39" s="197"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="207"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="207" t="s">
+      <c r="H39" s="217"/>
+      <c r="I39" s="217"/>
+      <c r="J39" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="K39" s="207"/>
-      <c r="L39" s="207"/>
-      <c r="M39" s="226"/>
+      <c r="K39" s="217"/>
+      <c r="L39" s="217"/>
+      <c r="M39" s="227"/>
     </row>
     <row r="40" spans="1:13" ht="16.8">
-      <c r="A40" s="204"/>
-      <c r="B40" s="204"/>
-      <c r="C40" s="204"/>
-      <c r="D40" s="204"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="204"/>
+      <c r="A40" s="197"/>
+      <c r="B40" s="197"/>
+      <c r="C40" s="197"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="197"/>
       <c r="G40" s="19" t="s">
         <v>63</v>
       </c>
@@ -14136,24 +14136,24 @@
       <c r="L40" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="M40" s="226"/>
+      <c r="M40" s="227"/>
     </row>
     <row r="41" spans="1:13" ht="16.8">
-      <c r="A41" s="224" t="s">
+      <c r="A41" s="225" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="224"/>
-      <c r="C41" s="224"/>
-      <c r="D41" s="224"/>
-      <c r="E41" s="224"/>
-      <c r="F41" s="224"/>
-      <c r="G41" s="224"/>
-      <c r="H41" s="224"/>
-      <c r="I41" s="224"/>
-      <c r="J41" s="224"/>
-      <c r="K41" s="224"/>
-      <c r="L41" s="224"/>
-      <c r="M41" s="224"/>
+      <c r="B41" s="225"/>
+      <c r="C41" s="225"/>
+      <c r="D41" s="225"/>
+      <c r="E41" s="225"/>
+      <c r="F41" s="225"/>
+      <c r="G41" s="225"/>
+      <c r="H41" s="225"/>
+      <c r="I41" s="225"/>
+      <c r="J41" s="225"/>
+      <c r="K41" s="225"/>
+      <c r="L41" s="225"/>
+      <c r="M41" s="225"/>
     </row>
     <row r="42" spans="1:13" ht="33.6">
       <c r="A42" s="54" t="s">
@@ -14756,21 +14756,21 @@
       <c r="M57" s="67"/>
     </row>
     <row r="58" spans="1:14" ht="16.8">
-      <c r="A58" s="225" t="s">
+      <c r="A58" s="226" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="220"/>
-      <c r="C58" s="220"/>
-      <c r="D58" s="220"/>
-      <c r="E58" s="220"/>
-      <c r="F58" s="220"/>
-      <c r="G58" s="220"/>
-      <c r="H58" s="220"/>
-      <c r="I58" s="220"/>
-      <c r="J58" s="220"/>
-      <c r="K58" s="220"/>
-      <c r="L58" s="220"/>
-      <c r="M58" s="221"/>
+      <c r="B58" s="222"/>
+      <c r="C58" s="222"/>
+      <c r="D58" s="222"/>
+      <c r="E58" s="222"/>
+      <c r="F58" s="222"/>
+      <c r="G58" s="222"/>
+      <c r="H58" s="222"/>
+      <c r="I58" s="222"/>
+      <c r="J58" s="222"/>
+      <c r="K58" s="222"/>
+      <c r="L58" s="222"/>
+      <c r="M58" s="223"/>
       <c r="N58" s="68"/>
     </row>
     <row r="59" spans="1:14" ht="174" customHeight="1">
@@ -15321,6 +15321,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G38:L38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
     <mergeCell ref="A41:M41"/>
     <mergeCell ref="A58:M58"/>
     <mergeCell ref="A38:A40"/>
@@ -15330,11 +15335,6 @@
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="F38:F40"/>
     <mergeCell ref="M38:M40"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G38:L38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G42:G57 G59:G72 J42:J57 J59:J72" xr:uid="{00000000-0002-0000-0500-000000000000}">
@@ -15350,8 +15350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42:K49"/>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -15383,13 +15383,13 @@
       <c r="A2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="10"/>
@@ -15452,62 +15452,62 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="17.399999999999999">
-      <c r="A31" s="204" t="s">
+      <c r="A31" s="197" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="204" t="s">
+      <c r="B31" s="197" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="204" t="s">
+      <c r="C31" s="197" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="204" t="s">
+      <c r="D31" s="197" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="205" t="s">
+      <c r="E31" s="198" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="204" t="s">
+      <c r="F31" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="207" t="s">
+      <c r="G31" s="217" t="s">
         <v>61</v>
       </c>
-      <c r="H31" s="207"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="207"/>
-      <c r="K31" s="207"/>
-      <c r="L31" s="207"/>
-      <c r="M31" s="216" t="s">
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="217"/>
+      <c r="M31" s="214" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.399999999999999">
-      <c r="A32" s="204"/>
-      <c r="B32" s="204"/>
-      <c r="C32" s="204"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="204"/>
-      <c r="G32" s="207" t="s">
+      <c r="A32" s="197"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="207" t="s">
+      <c r="H32" s="217"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="207"/>
-      <c r="L32" s="207"/>
-      <c r="M32" s="226"/>
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="227"/>
     </row>
     <row r="33" spans="1:14" ht="16.8">
-      <c r="A33" s="204"/>
-      <c r="B33" s="204"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="205"/>
-      <c r="F33" s="204"/>
+      <c r="A33" s="197"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="197"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="197"/>
       <c r="G33" s="19" t="s">
         <v>63</v>
       </c>
@@ -15526,24 +15526,24 @@
       <c r="L33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="M33" s="226"/>
+      <c r="M33" s="227"/>
     </row>
     <row r="34" spans="1:14" ht="16.8">
-      <c r="A34" s="224" t="s">
+      <c r="A34" s="225" t="s">
         <v>257</v>
       </c>
-      <c r="B34" s="224"/>
-      <c r="C34" s="224"/>
-      <c r="D34" s="224"/>
-      <c r="E34" s="224"/>
-      <c r="F34" s="224"/>
-      <c r="G34" s="224"/>
-      <c r="H34" s="224"/>
-      <c r="I34" s="224"/>
-      <c r="J34" s="224"/>
-      <c r="K34" s="224"/>
-      <c r="L34" s="224"/>
-      <c r="M34" s="224"/>
+      <c r="B34" s="225"/>
+      <c r="C34" s="225"/>
+      <c r="D34" s="225"/>
+      <c r="E34" s="225"/>
+      <c r="F34" s="225"/>
+      <c r="G34" s="225"/>
+      <c r="H34" s="225"/>
+      <c r="I34" s="225"/>
+      <c r="J34" s="225"/>
+      <c r="K34" s="225"/>
+      <c r="L34" s="225"/>
+      <c r="M34" s="225"/>
     </row>
     <row r="35" spans="1:14" ht="53.25" customHeight="1">
       <c r="A35" s="62" t="s">
@@ -15779,21 +15779,21 @@
       <c r="N40" s="58"/>
     </row>
     <row r="41" spans="1:14" ht="16.8">
-      <c r="A41" s="228" t="s">
+      <c r="A41" s="230" t="s">
         <v>269</v>
       </c>
-      <c r="B41" s="229"/>
-      <c r="C41" s="229"/>
-      <c r="D41" s="229"/>
-      <c r="E41" s="229"/>
-      <c r="F41" s="229"/>
-      <c r="G41" s="229"/>
-      <c r="H41" s="229"/>
-      <c r="I41" s="229"/>
-      <c r="J41" s="229"/>
-      <c r="K41" s="229"/>
-      <c r="L41" s="229"/>
-      <c r="M41" s="230"/>
+      <c r="B41" s="231"/>
+      <c r="C41" s="231"/>
+      <c r="D41" s="231"/>
+      <c r="E41" s="231"/>
+      <c r="F41" s="231"/>
+      <c r="G41" s="231"/>
+      <c r="H41" s="231"/>
+      <c r="I41" s="231"/>
+      <c r="J41" s="231"/>
+      <c r="K41" s="231"/>
+      <c r="L41" s="231"/>
+      <c r="M41" s="232"/>
     </row>
     <row r="42" spans="1:14" ht="184.95" customHeight="1">
       <c r="A42" s="26" t="s">
@@ -16107,6 +16107,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="A34:M34"/>
     <mergeCell ref="A41:M41"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B31:B33"/>
@@ -16115,11 +16120,6 @@
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="F31:F33"/>
     <mergeCell ref="M31:M33"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G31:L31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="A34:M34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G35:G40 G42:G49 J35:J40 J42:J49" xr:uid="{00000000-0002-0000-0600-000000000000}">
@@ -16135,7 +16135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
@@ -16160,25 +16160,25 @@
       <c r="A1" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="200" t="s">
         <v>601</v>
       </c>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="223"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="229"/>
     </row>
     <row r="2" spans="1:6" ht="22.8">
       <c r="A2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="227" t="s">
+      <c r="B2" s="233" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="10"/>
@@ -16227,62 +16227,62 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="17.399999999999999">
-      <c r="A40" s="214" t="s">
+      <c r="A40" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="214" t="s">
+      <c r="B40" s="212" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="214" t="s">
+      <c r="C40" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="214" t="s">
+      <c r="D40" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="F40" s="214" t="s">
+      <c r="F40" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="G40" s="207" t="s">
+      <c r="G40" s="217" t="s">
         <v>61</v>
       </c>
-      <c r="H40" s="207"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="207"/>
-      <c r="K40" s="207"/>
-      <c r="L40" s="207"/>
-      <c r="M40" s="216" t="s">
+      <c r="H40" s="217"/>
+      <c r="I40" s="217"/>
+      <c r="J40" s="217"/>
+      <c r="K40" s="217"/>
+      <c r="L40" s="217"/>
+      <c r="M40" s="214" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="17.399999999999999">
-      <c r="A41" s="214"/>
-      <c r="B41" s="214"/>
-      <c r="C41" s="214"/>
-      <c r="D41" s="214"/>
-      <c r="E41" s="215"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="207" t="s">
+      <c r="A41" s="212"/>
+      <c r="B41" s="212"/>
+      <c r="C41" s="212"/>
+      <c r="D41" s="212"/>
+      <c r="E41" s="213"/>
+      <c r="F41" s="212"/>
+      <c r="G41" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="207"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="207" t="s">
+      <c r="H41" s="217"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="K41" s="207"/>
-      <c r="L41" s="207"/>
-      <c r="M41" s="217"/>
+      <c r="K41" s="217"/>
+      <c r="L41" s="217"/>
+      <c r="M41" s="215"/>
     </row>
     <row r="42" spans="1:13" ht="15.6">
-      <c r="A42" s="214"/>
-      <c r="B42" s="214"/>
-      <c r="C42" s="214"/>
-      <c r="D42" s="214"/>
-      <c r="E42" s="215"/>
-      <c r="F42" s="214"/>
+      <c r="A42" s="212"/>
+      <c r="B42" s="212"/>
+      <c r="C42" s="212"/>
+      <c r="D42" s="212"/>
+      <c r="E42" s="213"/>
+      <c r="F42" s="212"/>
       <c r="G42" s="52" t="s">
         <v>63</v>
       </c>
@@ -16301,24 +16301,24 @@
       <c r="L42" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="M42" s="217"/>
+      <c r="M42" s="215"/>
     </row>
     <row r="43" spans="1:13" ht="15.6">
-      <c r="A43" s="208" t="s">
+      <c r="A43" s="218" t="s">
         <v>300</v>
       </c>
-      <c r="B43" s="209"/>
-      <c r="C43" s="209"/>
-      <c r="D43" s="209"/>
-      <c r="E43" s="209"/>
-      <c r="F43" s="209"/>
-      <c r="G43" s="209"/>
-      <c r="H43" s="209"/>
-      <c r="I43" s="209"/>
-      <c r="J43" s="209"/>
-      <c r="K43" s="209"/>
-      <c r="L43" s="209"/>
-      <c r="M43" s="210"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="219"/>
+      <c r="D43" s="219"/>
+      <c r="E43" s="219"/>
+      <c r="F43" s="219"/>
+      <c r="G43" s="219"/>
+      <c r="H43" s="219"/>
+      <c r="I43" s="219"/>
+      <c r="J43" s="219"/>
+      <c r="K43" s="219"/>
+      <c r="L43" s="219"/>
+      <c r="M43" s="220"/>
     </row>
     <row r="44" spans="1:13" ht="33.6">
       <c r="A44" s="54" t="s">
@@ -17005,21 +17005,21 @@
       </c>
     </row>
     <row r="64" spans="1:13" ht="16.8">
-      <c r="A64" s="211" t="s">
+      <c r="A64" s="209" t="s">
         <v>337</v>
       </c>
-      <c r="B64" s="212"/>
-      <c r="C64" s="212"/>
-      <c r="D64" s="212"/>
-      <c r="E64" s="212"/>
-      <c r="F64" s="212"/>
-      <c r="G64" s="212"/>
-      <c r="H64" s="212"/>
-      <c r="I64" s="212"/>
-      <c r="J64" s="212"/>
-      <c r="K64" s="212"/>
-      <c r="L64" s="212"/>
-      <c r="M64" s="213"/>
+      <c r="B64" s="210"/>
+      <c r="C64" s="210"/>
+      <c r="D64" s="210"/>
+      <c r="E64" s="210"/>
+      <c r="F64" s="210"/>
+      <c r="G64" s="210"/>
+      <c r="H64" s="210"/>
+      <c r="I64" s="210"/>
+      <c r="J64" s="210"/>
+      <c r="K64" s="210"/>
+      <c r="L64" s="210"/>
+      <c r="M64" s="211"/>
     </row>
     <row r="65" spans="1:14" ht="81" customHeight="1">
       <c r="A65" s="26" t="s">
@@ -17648,6 +17648,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="J41:L41"/>
     <mergeCell ref="A43:M43"/>
     <mergeCell ref="A64:M64"/>
     <mergeCell ref="A40:A42"/>
@@ -17657,11 +17662,6 @@
     <mergeCell ref="E40:E42"/>
     <mergeCell ref="F40:F42"/>
     <mergeCell ref="M40:M42"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="J41:L41"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G44:G63 G65:G80 J44:J63 J65:J80" xr:uid="{00000000-0002-0000-0700-000000000000}">
@@ -17678,8 +17678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46:K51"/>
+    <sheetView topLeftCell="A49" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -17714,13 +17714,13 @@
       <c r="A2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="205"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1">
       <c r="A3" s="10"/>
@@ -17783,62 +17783,62 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="17.399999999999999">
-      <c r="A32" s="214" t="s">
+      <c r="A32" s="212" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="214" t="s">
+      <c r="B32" s="212" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="214" t="s">
+      <c r="C32" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="214" t="s">
+      <c r="D32" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="215" t="s">
+      <c r="E32" s="213" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="214" t="s">
+      <c r="F32" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="G32" s="207" t="s">
+      <c r="G32" s="217" t="s">
         <v>61</v>
       </c>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="207"/>
-      <c r="K32" s="207"/>
-      <c r="L32" s="207"/>
-      <c r="M32" s="216" t="s">
+      <c r="H32" s="217"/>
+      <c r="I32" s="217"/>
+      <c r="J32" s="217"/>
+      <c r="K32" s="217"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="214" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17.399999999999999">
-      <c r="A33" s="214"/>
-      <c r="B33" s="214"/>
-      <c r="C33" s="214"/>
-      <c r="D33" s="214"/>
-      <c r="E33" s="215"/>
-      <c r="F33" s="214"/>
-      <c r="G33" s="207" t="s">
+      <c r="A33" s="212"/>
+      <c r="B33" s="212"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="207"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="207" t="s">
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="217" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="207"/>
-      <c r="L33" s="207"/>
-      <c r="M33" s="217"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="217"/>
+      <c r="M33" s="215"/>
     </row>
     <row r="34" spans="1:14" ht="15.6">
-      <c r="A34" s="214"/>
-      <c r="B34" s="214"/>
-      <c r="C34" s="214"/>
-      <c r="D34" s="214"/>
-      <c r="E34" s="215"/>
-      <c r="F34" s="214"/>
+      <c r="A34" s="212"/>
+      <c r="B34" s="212"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="212"/>
+      <c r="E34" s="213"/>
+      <c r="F34" s="212"/>
       <c r="G34" s="52" t="s">
         <v>63</v>
       </c>
@@ -17857,24 +17857,24 @@
       <c r="L34" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="M34" s="217"/>
+      <c r="M34" s="215"/>
     </row>
     <row r="35" spans="1:14" ht="15.6">
-      <c r="A35" s="208" t="s">
+      <c r="A35" s="218" t="s">
         <v>388</v>
       </c>
-      <c r="B35" s="209"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="209"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="209"/>
-      <c r="I35" s="209"/>
-      <c r="J35" s="209"/>
-      <c r="K35" s="209"/>
-      <c r="L35" s="209"/>
-      <c r="M35" s="210"/>
+      <c r="B35" s="219"/>
+      <c r="C35" s="219"/>
+      <c r="D35" s="219"/>
+      <c r="E35" s="219"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="219"/>
+      <c r="H35" s="219"/>
+      <c r="I35" s="219"/>
+      <c r="J35" s="219"/>
+      <c r="K35" s="219"/>
+      <c r="L35" s="219"/>
+      <c r="M35" s="220"/>
     </row>
     <row r="36" spans="1:14" ht="33.6">
       <c r="A36" s="54" t="s">
@@ -18203,21 +18203,21 @@
       <c r="N44" s="58"/>
     </row>
     <row r="45" spans="1:14" ht="16.8">
-      <c r="A45" s="211" t="s">
+      <c r="A45" s="209" t="s">
         <v>402</v>
       </c>
-      <c r="B45" s="212"/>
-      <c r="C45" s="212"/>
-      <c r="D45" s="212"/>
-      <c r="E45" s="212"/>
-      <c r="F45" s="212"/>
-      <c r="G45" s="212"/>
-      <c r="H45" s="212"/>
-      <c r="I45" s="212"/>
-      <c r="J45" s="212"/>
-      <c r="K45" s="212"/>
-      <c r="L45" s="212"/>
-      <c r="M45" s="213"/>
+      <c r="B45" s="210"/>
+      <c r="C45" s="210"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="210"/>
+      <c r="F45" s="210"/>
+      <c r="G45" s="210"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="210"/>
+      <c r="J45" s="210"/>
+      <c r="K45" s="210"/>
+      <c r="L45" s="210"/>
+      <c r="M45" s="211"/>
     </row>
     <row r="46" spans="1:14" ht="121.05" customHeight="1">
       <c r="A46" s="26" t="s">
@@ -18458,6 +18458,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G32:L32"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="A35:M35"/>
     <mergeCell ref="A45:M45"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="B32:B34"/>
@@ -18466,11 +18471,6 @@
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="F32:F34"/>
     <mergeCell ref="M32:M34"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="A35:M35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="dfdf" sqref="G36:G44 G46:G51 J36:J44 J46:J51" xr:uid="{00000000-0002-0000-0800-000000000000}">
